--- a/api/2/clv2/xlsx/pt/HumanitarianPlan.xlsx
+++ b/api/2/clv2/xlsx/pt/HumanitarianPlan.xlsx
@@ -22,15 +22,15 @@
     <t>status</t>
   </si>
   <si>
+    <t>codeforiati:plan-year</t>
+  </si>
+  <si>
+    <t>codeforiati:plan-type</t>
+  </si>
+  <si>
     <t>codeforiati:plan-end-date</t>
   </si>
   <si>
-    <t>codeforiati:plan-type</t>
-  </si>
-  <si>
-    <t>codeforiati:plan-year</t>
-  </si>
-  <si>
     <t>codeforiati:plan-start-date</t>
   </si>
   <si>
@@ -40,15 +40,15 @@
     <t>active</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Humanitarian needs and response plan</t>
+  </si>
+  <si>
     <t>2025-12-31</t>
   </si>
   <si>
-    <t>Humanitarian needs and response plan</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>2025-01-01</t>
   </si>
   <si>
@@ -61,12 +61,12 @@
     <t>OBGD25</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>2025-03-31</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>HBFA25</t>
   </si>
   <si>
@@ -211,12 +211,12 @@
     <t>HAFG24</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>2024-12-31</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>2024-01-01</t>
   </si>
   <si>
@@ -415,12 +415,12 @@
     <t>HAFG23</t>
   </si>
   <si>
+    <t>2023</t>
+  </si>
+  <si>
     <t>2023-12-31</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>2023-01-01</t>
   </si>
   <si>
@@ -595,12 +595,12 @@
     <t>HAFG22</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>2022-12-31</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>2022-01-01</t>
   </si>
   <si>
@@ -799,12 +799,12 @@
     <t>FAFG21</t>
   </si>
   <si>
+    <t>2021</t>
+  </si>
+  <si>
     <t>2021-12-31</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>2021-09-01</t>
   </si>
   <si>
@@ -1003,12 +1003,12 @@
     <t>HAFG20</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>2020-12-31</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>2020-01-01</t>
   </si>
   <si>
@@ -1243,12 +1243,12 @@
     <t>HAFG19</t>
   </si>
   <si>
+    <t>2019</t>
+  </si>
+  <si>
     <t>2019-12-31</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>2019-01-01</t>
   </si>
   <si>
@@ -1375,12 +1375,12 @@
     <t>HAFG18</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
     <t>2018-12-31</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>2018-01-01</t>
   </si>
   <si>
@@ -1501,12 +1501,12 @@
     <t>OEUR17</t>
   </si>
   <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>2017-12-31</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>2017-01-01</t>
   </si>
   <si>
@@ -1672,12 +1672,12 @@
     <t>OEUR16</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>2016-12-31</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>2016-01-01</t>
   </si>
   <si>
@@ -1834,15 +1834,15 @@
     <t>HAFG15</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>Strategic response plan</t>
+  </si>
+  <si>
     <t>2015-12-31</t>
   </si>
   <si>
-    <t>Strategic response plan</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>2015-01-01</t>
   </si>
   <si>
@@ -1969,12 +1969,12 @@
     <t>HAFG14</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>2014-12-31</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>2014-01-01</t>
   </si>
   <si>
@@ -2143,15 +2143,15 @@
     <t>CAFG13</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>Consolidated appeals process</t>
+  </si>
+  <si>
     <t>2013-12-31</t>
   </si>
   <si>
-    <t>Consolidated appeals process</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
     <t>CBFA13</t>
   </si>
   <si>
@@ -2236,12 +2236,12 @@
     <t>CKEN12</t>
   </si>
   <si>
+    <t>2012</t>
+  </si>
+  <si>
     <t>2012-12-31</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>2012-01-01</t>
   </si>
   <si>
@@ -2470,12 +2470,12 @@
     <t>CAFG10</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>2010-12-31</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
     <t>2010-01-01</t>
   </si>
   <si>
@@ -2602,12 +2602,12 @@
     <t>CAFG09</t>
   </si>
   <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2009-12-31</t>
   </si>
   <si>
-    <t>2009</t>
-  </si>
-  <si>
     <t>2009-01-01</t>
   </si>
   <si>
@@ -2740,12 +2740,12 @@
     <t>OAFG08</t>
   </si>
   <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2008-06-30</t>
   </si>
   <si>
-    <t>2008</t>
-  </si>
-  <si>
     <t>2008-02-01</t>
   </si>
   <si>
@@ -2908,12 +2908,12 @@
     <t>FBOL07</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>2007-08-21</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
     <t>2007-02-22</t>
   </si>
   <si>
@@ -3106,12 +3106,12 @@
     <t>OAFG06</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
     <t>2006-12-31</t>
   </si>
   <si>
-    <t>2006</t>
-  </si>
-  <si>
     <t>2006-07-01</t>
   </si>
   <si>
@@ -3265,12 +3265,12 @@
     <t>FAGO05</t>
   </si>
   <si>
+    <t>2005</t>
+  </si>
+  <si>
     <t>2005-06-30</t>
   </si>
   <si>
-    <t>2005</t>
-  </si>
-  <si>
     <t>2005-04-01</t>
   </si>
   <si>
@@ -3394,12 +3394,12 @@
     <t>OAFG04</t>
   </si>
   <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>2004-12-31</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
     <t>2004-09-01</t>
   </si>
   <si>
@@ -3544,12 +3544,12 @@
     <t>OAFG03</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
     <t>2003-12-31</t>
   </si>
   <si>
-    <t>2003</t>
-  </si>
-  <si>
     <t>2003-01-01</t>
   </si>
   <si>
@@ -3670,12 +3670,12 @@
     <t>CAFG0102</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2002-12-31</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
     <t>2001-10-01</t>
   </si>
   <si>
@@ -3772,12 +3772,12 @@
     <t>CAFG01</t>
   </si>
   <si>
+    <t>2001</t>
+  </si>
+  <si>
     <t>2001-09-30</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>2001-01-01</t>
   </si>
   <si>
@@ -3853,10 +3853,10 @@
     <t>CAGO00</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>2000-12-31</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>2000-01-01</t>
@@ -4325,13 +4325,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -4525,13 +4525,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
@@ -4545,13 +4545,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
@@ -4585,13 +4585,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -4625,13 +4625,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -4725,13 +4725,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" t="s">
         <v>43</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -5065,13 +5065,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" t="s">
         <v>36</v>
-      </c>
-      <c r="D41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>10</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -5105,13 +5105,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
         <v>11</v>
@@ -5125,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
         <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -5188,7 +5188,7 @@
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
         <v>66</v>
@@ -5228,7 +5228,7 @@
         <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
         <v>66</v>
@@ -5448,7 +5448,7 @@
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
         <v>66</v>
@@ -5485,13 +5485,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
         <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="F62" t="s">
         <v>67</v>
@@ -5505,13 +5505,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
         <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F63" t="s">
         <v>67</v>
@@ -5565,13 +5565,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
         <v>91</v>
-      </c>
-      <c r="D66" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" t="s">
-        <v>66</v>
       </c>
       <c r="F66" t="s">
         <v>96</v>
@@ -5648,7 +5648,7 @@
         <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E70" t="s">
         <v>66</v>
@@ -5708,7 +5708,7 @@
         <v>65</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E73" t="s">
         <v>66</v>
@@ -6088,7 +6088,7 @@
         <v>65</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E92" t="s">
         <v>66</v>
@@ -6468,7 +6468,7 @@
         <v>133</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
         <v>134</v>
@@ -6545,13 +6545,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
+        <v>133</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
         <v>157</v>
-      </c>
-      <c r="D115" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" t="s">
-        <v>134</v>
       </c>
       <c r="F115" t="s">
         <v>158</v>
@@ -6565,13 +6565,13 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" t="s">
         <v>160</v>
-      </c>
-      <c r="D116" t="s">
-        <v>16</v>
-      </c>
-      <c r="E116" t="s">
-        <v>134</v>
       </c>
       <c r="F116" t="s">
         <v>161</v>
@@ -6665,13 +6665,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
+        <v>133</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121" t="s">
         <v>160</v>
-      </c>
-      <c r="D121" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" t="s">
-        <v>134</v>
       </c>
       <c r="F121" t="s">
         <v>135</v>
@@ -6685,13 +6685,13 @@
         <v>7</v>
       </c>
       <c r="C122" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
         <v>157</v>
-      </c>
-      <c r="D122" t="s">
-        <v>16</v>
-      </c>
-      <c r="E122" t="s">
-        <v>134</v>
       </c>
       <c r="F122" t="s">
         <v>135</v>
@@ -6865,13 +6865,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="F131" t="s">
         <v>178</v>
@@ -6905,13 +6905,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D133" t="s">
         <v>24</v>
       </c>
       <c r="E133" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F133" t="s">
         <v>181</v>
@@ -6945,13 +6945,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
       </c>
       <c r="E135" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="F135" t="s">
         <v>184</v>
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
+        <v>193</v>
+      </c>
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+      <c r="E150" t="s">
         <v>203</v>
-      </c>
-      <c r="D150" t="s">
-        <v>16</v>
-      </c>
-      <c r="E150" t="s">
-        <v>194</v>
       </c>
       <c r="F150" t="s">
         <v>204</v>
@@ -7345,13 +7345,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D155" t="s">
         <v>24</v>
       </c>
       <c r="E155" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="F155" t="s">
         <v>211</v>
@@ -7445,13 +7445,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D160" t="s">
         <v>24</v>
       </c>
       <c r="E160" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="F160" t="s">
         <v>195</v>
@@ -7468,7 +7468,7 @@
         <v>193</v>
       </c>
       <c r="D161" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E161" t="s">
         <v>194</v>
@@ -7525,13 +7525,13 @@
         <v>7</v>
       </c>
       <c r="C164" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="D164" t="s">
         <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="F164" t="s">
         <v>223</v>
@@ -7565,13 +7565,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="D166" t="s">
         <v>24</v>
       </c>
       <c r="E166" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="F166" t="s">
         <v>227</v>
@@ -7688,7 +7688,7 @@
         <v>193</v>
       </c>
       <c r="D172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E172" t="s">
         <v>194</v>
@@ -7705,13 +7705,13 @@
         <v>108</v>
       </c>
       <c r="C173" t="s">
+        <v>193</v>
+      </c>
+      <c r="D173" t="s">
+        <v>15</v>
+      </c>
+      <c r="E173" t="s">
         <v>236</v>
-      </c>
-      <c r="D173" t="s">
-        <v>16</v>
-      </c>
-      <c r="E173" t="s">
-        <v>194</v>
       </c>
       <c r="F173" t="s">
         <v>234</v>
@@ -7725,13 +7725,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174" t="s">
+        <v>15</v>
+      </c>
+      <c r="E174" t="s">
         <v>238</v>
-      </c>
-      <c r="D174" t="s">
-        <v>16</v>
-      </c>
-      <c r="E174" t="s">
-        <v>194</v>
       </c>
       <c r="F174" t="s">
         <v>239</v>
@@ -7888,7 +7888,7 @@
         <v>193</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E182" t="s">
         <v>194</v>
@@ -8025,13 +8025,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>257</v>
+        <v>193</v>
       </c>
       <c r="D189" t="s">
         <v>13</v>
       </c>
       <c r="E189" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="F189" t="s">
         <v>254</v>
@@ -8345,13 +8345,13 @@
         <v>108</v>
       </c>
       <c r="C205" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="D205" t="s">
         <v>19</v>
       </c>
       <c r="E205" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="F205" t="s">
         <v>277</v>
@@ -8365,13 +8365,13 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D206" t="s">
         <v>24</v>
       </c>
       <c r="E206" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F206" t="s">
         <v>281</v>
@@ -8425,13 +8425,13 @@
         <v>108</v>
       </c>
       <c r="C209" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="D209" t="s">
         <v>19</v>
       </c>
       <c r="E209" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="F209" t="s">
         <v>277</v>
@@ -8445,13 +8445,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="D210" t="s">
         <v>24</v>
       </c>
       <c r="E210" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="F210" t="s">
         <v>287</v>
@@ -8485,13 +8485,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="D212" t="s">
         <v>24</v>
       </c>
       <c r="E212" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="F212" t="s">
         <v>291</v>
@@ -8525,13 +8525,13 @@
         <v>108</v>
       </c>
       <c r="C214" t="s">
-        <v>193</v>
+        <v>261</v>
       </c>
       <c r="D214" t="s">
         <v>19</v>
       </c>
       <c r="E214" t="s">
-        <v>262</v>
+        <v>194</v>
       </c>
       <c r="F214" t="s">
         <v>277</v>
@@ -8585,13 +8585,13 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
+        <v>261</v>
+      </c>
+      <c r="D217" t="s">
+        <v>15</v>
+      </c>
+      <c r="E217" t="s">
         <v>298</v>
-      </c>
-      <c r="D217" t="s">
-        <v>16</v>
-      </c>
-      <c r="E217" t="s">
-        <v>262</v>
       </c>
       <c r="F217" t="s">
         <v>299</v>
@@ -8625,13 +8625,13 @@
         <v>108</v>
       </c>
       <c r="C219" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="D219" t="s">
         <v>24</v>
       </c>
       <c r="E219" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="F219" t="s">
         <v>265</v>
@@ -8728,7 +8728,7 @@
         <v>261</v>
       </c>
       <c r="D224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E224" t="s">
         <v>262</v>
@@ -8748,7 +8748,7 @@
         <v>261</v>
       </c>
       <c r="D225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E225" t="s">
         <v>262</v>
@@ -8828,7 +8828,7 @@
         <v>261</v>
       </c>
       <c r="D229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E229" t="s">
         <v>262</v>
@@ -9148,7 +9148,7 @@
         <v>329</v>
       </c>
       <c r="D245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E245" t="s">
         <v>330</v>
@@ -9188,7 +9188,7 @@
         <v>329</v>
       </c>
       <c r="D247" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E247" t="s">
         <v>330</v>
@@ -9268,7 +9268,7 @@
         <v>329</v>
       </c>
       <c r="D251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E251" t="s">
         <v>330</v>
@@ -9305,13 +9305,13 @@
         <v>7</v>
       </c>
       <c r="C253" t="s">
+        <v>329</v>
+      </c>
+      <c r="D253" t="s">
+        <v>19</v>
+      </c>
+      <c r="E253" t="s">
         <v>265</v>
-      </c>
-      <c r="D253" t="s">
-        <v>19</v>
-      </c>
-      <c r="E253" t="s">
-        <v>330</v>
       </c>
       <c r="F253" t="s">
         <v>343</v>
@@ -9368,7 +9368,7 @@
         <v>329</v>
       </c>
       <c r="D256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E256" t="s">
         <v>330</v>
@@ -9388,7 +9388,7 @@
         <v>329</v>
       </c>
       <c r="D257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E257" t="s">
         <v>330</v>
@@ -9465,13 +9465,13 @@
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D261" t="s">
         <v>24</v>
       </c>
       <c r="E261" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="F261" t="s">
         <v>354</v>
@@ -9488,7 +9488,7 @@
         <v>329</v>
       </c>
       <c r="D262" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E262" t="s">
         <v>330</v>
@@ -9508,7 +9508,7 @@
         <v>329</v>
       </c>
       <c r="D263" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E263" t="s">
         <v>330</v>
@@ -9528,7 +9528,7 @@
         <v>329</v>
       </c>
       <c r="D264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E264" t="s">
         <v>330</v>
@@ -9548,7 +9548,7 @@
         <v>329</v>
       </c>
       <c r="D265" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E265" t="s">
         <v>330</v>
@@ -9588,7 +9588,7 @@
         <v>329</v>
       </c>
       <c r="D267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E267" t="s">
         <v>330</v>
@@ -9608,7 +9608,7 @@
         <v>329</v>
       </c>
       <c r="D268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E268" t="s">
         <v>330</v>
@@ -9628,7 +9628,7 @@
         <v>329</v>
       </c>
       <c r="D269" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E269" t="s">
         <v>330</v>
@@ -9648,7 +9648,7 @@
         <v>329</v>
       </c>
       <c r="D270" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E270" t="s">
         <v>330</v>
@@ -9688,7 +9688,7 @@
         <v>329</v>
       </c>
       <c r="D272" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E272" t="s">
         <v>330</v>
@@ -9728,7 +9728,7 @@
         <v>329</v>
       </c>
       <c r="D274" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E274" t="s">
         <v>330</v>
@@ -9748,7 +9748,7 @@
         <v>329</v>
       </c>
       <c r="D275" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E275" t="s">
         <v>330</v>
@@ -9765,13 +9765,13 @@
         <v>7</v>
       </c>
       <c r="C276" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="D276" t="s">
         <v>24</v>
       </c>
       <c r="E276" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="F276" t="s">
         <v>372</v>
@@ -9788,7 +9788,7 @@
         <v>329</v>
       </c>
       <c r="D277" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E277" t="s">
         <v>330</v>
@@ -9805,13 +9805,13 @@
         <v>7</v>
       </c>
       <c r="C278" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="D278" t="s">
         <v>24</v>
       </c>
       <c r="E278" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="F278" t="s">
         <v>376</v>
@@ -9828,7 +9828,7 @@
         <v>329</v>
       </c>
       <c r="D279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E279" t="s">
         <v>330</v>
@@ -9888,7 +9888,7 @@
         <v>329</v>
       </c>
       <c r="D282" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E282" t="s">
         <v>330</v>
@@ -9988,7 +9988,7 @@
         <v>329</v>
       </c>
       <c r="D287" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E287" t="s">
         <v>330</v>
@@ -10008,7 +10008,7 @@
         <v>329</v>
       </c>
       <c r="D288" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E288" t="s">
         <v>330</v>
@@ -10068,7 +10068,7 @@
         <v>329</v>
       </c>
       <c r="D291" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E291" t="s">
         <v>330</v>
@@ -10088,7 +10088,7 @@
         <v>329</v>
       </c>
       <c r="D292" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E292" t="s">
         <v>330</v>
@@ -10228,7 +10228,7 @@
         <v>329</v>
       </c>
       <c r="D299" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E299" t="s">
         <v>330</v>
@@ -10248,7 +10248,7 @@
         <v>329</v>
       </c>
       <c r="D300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E300" t="s">
         <v>330</v>
@@ -10268,7 +10268,7 @@
         <v>329</v>
       </c>
       <c r="D301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E301" t="s">
         <v>330</v>
@@ -10308,7 +10308,7 @@
         <v>329</v>
       </c>
       <c r="D303" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E303" t="s">
         <v>330</v>
@@ -10365,13 +10365,13 @@
         <v>7</v>
       </c>
       <c r="C306" t="s">
+        <v>329</v>
+      </c>
+      <c r="D306" t="s">
+        <v>15</v>
+      </c>
+      <c r="E306" t="s">
         <v>353</v>
-      </c>
-      <c r="D306" t="s">
-        <v>16</v>
-      </c>
-      <c r="E306" t="s">
-        <v>330</v>
       </c>
       <c r="F306" t="s">
         <v>405</v>
@@ -10388,7 +10388,7 @@
         <v>329</v>
       </c>
       <c r="D307" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E307" t="s">
         <v>330</v>
@@ -10468,7 +10468,7 @@
         <v>409</v>
       </c>
       <c r="D311" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E311" t="s">
         <v>410</v>
@@ -10488,7 +10488,7 @@
         <v>409</v>
       </c>
       <c r="D312" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E312" t="s">
         <v>410</v>
@@ -10608,7 +10608,7 @@
         <v>409</v>
       </c>
       <c r="D318" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E318" t="s">
         <v>410</v>
@@ -10688,7 +10688,7 @@
         <v>409</v>
       </c>
       <c r="D322" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E322" t="s">
         <v>410</v>
@@ -10725,13 +10725,13 @@
         <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D324" t="s">
         <v>24</v>
       </c>
       <c r="E324" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="F324" t="s">
         <v>411</v>
@@ -10845,13 +10845,13 @@
         <v>7</v>
       </c>
       <c r="C330" t="s">
+        <v>409</v>
+      </c>
+      <c r="D330" t="s">
+        <v>19</v>
+      </c>
+      <c r="E330" t="s">
         <v>435</v>
-      </c>
-      <c r="D330" t="s">
-        <v>19</v>
-      </c>
-      <c r="E330" t="s">
-        <v>410</v>
       </c>
       <c r="F330" t="s">
         <v>411</v>
@@ -10868,7 +10868,7 @@
         <v>409</v>
       </c>
       <c r="D331" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E331" t="s">
         <v>410</v>
@@ -10908,7 +10908,7 @@
         <v>409</v>
       </c>
       <c r="D333" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E333" t="s">
         <v>410</v>
@@ -11085,13 +11085,13 @@
         <v>7</v>
       </c>
       <c r="C342" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="D342" t="s">
         <v>24</v>
       </c>
       <c r="E342" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="F342" t="s">
         <v>449</v>
@@ -11105,13 +11105,13 @@
         <v>108</v>
       </c>
       <c r="C343" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="D343" t="s">
         <v>24</v>
       </c>
       <c r="E343" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
       <c r="F343" t="s">
         <v>451</v>
@@ -11148,7 +11148,7 @@
         <v>453</v>
       </c>
       <c r="D345" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E345" t="s">
         <v>454</v>
@@ -11168,7 +11168,7 @@
         <v>453</v>
       </c>
       <c r="D346" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E346" t="s">
         <v>454</v>
@@ -11288,7 +11288,7 @@
         <v>453</v>
       </c>
       <c r="D352" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E352" t="s">
         <v>454</v>
@@ -11348,7 +11348,7 @@
         <v>453</v>
       </c>
       <c r="D355" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E355" t="s">
         <v>454</v>
@@ -11428,7 +11428,7 @@
         <v>453</v>
       </c>
       <c r="D359" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E359" t="s">
         <v>454</v>
@@ -11528,7 +11528,7 @@
         <v>453</v>
       </c>
       <c r="D364" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E364" t="s">
         <v>454</v>
@@ -11548,7 +11548,7 @@
         <v>453</v>
       </c>
       <c r="D365" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E365" t="s">
         <v>454</v>
@@ -11608,7 +11608,7 @@
         <v>453</v>
       </c>
       <c r="D368" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E368" t="s">
         <v>454</v>
@@ -11645,13 +11645,13 @@
         <v>7</v>
       </c>
       <c r="C370" t="s">
+        <v>453</v>
+      </c>
+      <c r="D370" t="s">
+        <v>19</v>
+      </c>
+      <c r="E370" t="s">
         <v>485</v>
-      </c>
-      <c r="D370" t="s">
-        <v>19</v>
-      </c>
-      <c r="E370" t="s">
-        <v>454</v>
       </c>
       <c r="F370" t="s">
         <v>455</v>
@@ -11665,13 +11665,13 @@
         <v>7</v>
       </c>
       <c r="C371" t="s">
+        <v>453</v>
+      </c>
+      <c r="D371" t="s">
+        <v>19</v>
+      </c>
+      <c r="E371" t="s">
         <v>487</v>
-      </c>
-      <c r="D371" t="s">
-        <v>19</v>
-      </c>
-      <c r="E371" t="s">
-        <v>454</v>
       </c>
       <c r="F371" t="s">
         <v>488</v>
@@ -11705,13 +11705,13 @@
         <v>108</v>
       </c>
       <c r="C373" t="s">
+        <v>453</v>
+      </c>
+      <c r="D373" t="s">
+        <v>19</v>
+      </c>
+      <c r="E373" t="s">
         <v>487</v>
-      </c>
-      <c r="D373" t="s">
-        <v>19</v>
-      </c>
-      <c r="E373" t="s">
-        <v>454</v>
       </c>
       <c r="F373" t="s">
         <v>488</v>
@@ -11948,7 +11948,7 @@
         <v>495</v>
       </c>
       <c r="D385" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E385" t="s">
         <v>496</v>
@@ -12005,13 +12005,13 @@
         <v>7</v>
       </c>
       <c r="C388" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D388" t="s">
         <v>24</v>
       </c>
       <c r="E388" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="F388" t="s">
         <v>513</v>
@@ -12028,7 +12028,7 @@
         <v>495</v>
       </c>
       <c r="D389" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E389" t="s">
         <v>496</v>
@@ -12088,7 +12088,7 @@
         <v>495</v>
       </c>
       <c r="D392" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E392" t="s">
         <v>496</v>
@@ -12125,13 +12125,13 @@
         <v>7</v>
       </c>
       <c r="C394" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="D394" t="s">
         <v>24</v>
       </c>
       <c r="E394" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="F394" t="s">
         <v>522</v>
@@ -12165,13 +12165,13 @@
         <v>7</v>
       </c>
       <c r="C396" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="D396" t="s">
         <v>24</v>
       </c>
       <c r="E396" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="F396" t="s">
         <v>526</v>
@@ -12225,13 +12225,13 @@
         <v>7</v>
       </c>
       <c r="C399" t="s">
-        <v>530</v>
+        <v>495</v>
       </c>
       <c r="D399" t="s">
         <v>24</v>
       </c>
       <c r="E399" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="F399" t="s">
         <v>531</v>
@@ -12328,7 +12328,7 @@
         <v>495</v>
       </c>
       <c r="D404" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E404" t="s">
         <v>496</v>
@@ -12345,13 +12345,13 @@
         <v>7</v>
       </c>
       <c r="C405" t="s">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="D405" t="s">
         <v>24</v>
       </c>
       <c r="E405" t="s">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="F405" t="s">
         <v>539</v>
@@ -12568,7 +12568,7 @@
         <v>552</v>
       </c>
       <c r="D416" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E416" t="s">
         <v>553</v>
@@ -12768,7 +12768,7 @@
         <v>552</v>
       </c>
       <c r="D426" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E426" t="s">
         <v>553</v>
@@ -12785,13 +12785,13 @@
         <v>7</v>
       </c>
       <c r="C427" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="D427" t="s">
         <v>24</v>
       </c>
       <c r="E427" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="F427" t="s">
         <v>569</v>
@@ -12805,13 +12805,13 @@
         <v>7</v>
       </c>
       <c r="C428" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
       <c r="D428" t="s">
         <v>24</v>
       </c>
       <c r="E428" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
       <c r="F428" t="s">
         <v>572</v>
@@ -13025,13 +13025,13 @@
         <v>7</v>
       </c>
       <c r="C439" t="s">
-        <v>587</v>
+        <v>552</v>
       </c>
       <c r="D439" t="s">
         <v>24</v>
       </c>
       <c r="E439" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="F439" t="s">
         <v>588</v>
@@ -13305,13 +13305,13 @@
         <v>7</v>
       </c>
       <c r="C453" t="s">
+        <v>552</v>
+      </c>
+      <c r="D453" t="s">
+        <v>19</v>
+      </c>
+      <c r="E453" t="s">
         <v>603</v>
-      </c>
-      <c r="D453" t="s">
-        <v>19</v>
-      </c>
-      <c r="E453" t="s">
-        <v>553</v>
       </c>
       <c r="F453" t="s">
         <v>604</v>
@@ -13468,7 +13468,7 @@
         <v>606</v>
       </c>
       <c r="D461" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E461" t="s">
         <v>608</v>
@@ -13505,13 +13505,13 @@
         <v>7</v>
       </c>
       <c r="C463" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D463" t="s">
         <v>24</v>
       </c>
       <c r="E463" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="F463" t="s">
         <v>620</v>
@@ -13545,13 +13545,13 @@
         <v>7</v>
       </c>
       <c r="C465" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D465" t="s">
         <v>24</v>
       </c>
       <c r="E465" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="F465" t="s">
         <v>624</v>
@@ -13565,13 +13565,13 @@
         <v>7</v>
       </c>
       <c r="C466" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="D466" t="s">
         <v>24</v>
       </c>
       <c r="E466" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="F466" t="s">
         <v>627</v>
@@ -13605,13 +13605,13 @@
         <v>7</v>
       </c>
       <c r="C468" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="D468" t="s">
         <v>24</v>
       </c>
       <c r="E468" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="F468" t="s">
         <v>631</v>
@@ -13685,13 +13685,13 @@
         <v>7</v>
       </c>
       <c r="C472" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="D472" t="s">
         <v>24</v>
       </c>
       <c r="E472" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="F472" t="s">
         <v>636</v>
@@ -14065,13 +14065,13 @@
         <v>108</v>
       </c>
       <c r="C491" t="s">
+        <v>651</v>
+      </c>
+      <c r="D491" t="s">
+        <v>19</v>
+      </c>
+      <c r="E491" t="s">
         <v>660</v>
-      </c>
-      <c r="D491" t="s">
-        <v>19</v>
-      </c>
-      <c r="E491" t="s">
-        <v>652</v>
       </c>
       <c r="F491" t="s">
         <v>653</v>
@@ -14105,13 +14105,13 @@
         <v>7</v>
       </c>
       <c r="C493" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="D493" t="s">
         <v>13</v>
       </c>
       <c r="E493" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="F493" t="s">
         <v>631</v>
@@ -14125,13 +14125,13 @@
         <v>108</v>
       </c>
       <c r="C494" t="s">
+        <v>651</v>
+      </c>
+      <c r="D494" t="s">
+        <v>15</v>
+      </c>
+      <c r="E494" t="s">
         <v>663</v>
-      </c>
-      <c r="D494" t="s">
-        <v>16</v>
-      </c>
-      <c r="E494" t="s">
-        <v>652</v>
       </c>
       <c r="F494" t="s">
         <v>631</v>
@@ -14365,13 +14365,13 @@
         <v>7</v>
       </c>
       <c r="C506" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="D506" t="s">
         <v>24</v>
       </c>
       <c r="E506" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="F506" t="s">
         <v>680</v>
@@ -14385,13 +14385,13 @@
         <v>7</v>
       </c>
       <c r="C507" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="D507" t="s">
         <v>607</v>
       </c>
       <c r="E507" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="F507" t="s">
         <v>683</v>
@@ -14405,13 +14405,13 @@
         <v>108</v>
       </c>
       <c r="C508" t="s">
+        <v>651</v>
+      </c>
+      <c r="D508" t="s">
+        <v>19</v>
+      </c>
+      <c r="E508" t="s">
         <v>685</v>
-      </c>
-      <c r="D508" t="s">
-        <v>19</v>
-      </c>
-      <c r="E508" t="s">
-        <v>652</v>
       </c>
       <c r="F508" t="s">
         <v>683</v>
@@ -14425,13 +14425,13 @@
         <v>7</v>
       </c>
       <c r="C509" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
       <c r="D509" t="s">
         <v>24</v>
       </c>
       <c r="E509" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="F509" t="s">
         <v>688</v>
@@ -14468,7 +14468,7 @@
         <v>651</v>
       </c>
       <c r="D511" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E511" t="s">
         <v>652</v>
@@ -14485,13 +14485,13 @@
         <v>108</v>
       </c>
       <c r="C512" t="s">
+        <v>651</v>
+      </c>
+      <c r="D512" t="s">
+        <v>19</v>
+      </c>
+      <c r="E512" t="s">
         <v>693</v>
-      </c>
-      <c r="D512" t="s">
-        <v>19</v>
-      </c>
-      <c r="E512" t="s">
-        <v>652</v>
       </c>
       <c r="F512" t="s">
         <v>653</v>
@@ -14808,7 +14808,7 @@
         <v>709</v>
       </c>
       <c r="D528" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E528" t="s">
         <v>711</v>
@@ -14825,13 +14825,13 @@
         <v>7</v>
       </c>
       <c r="C529" t="s">
+        <v>709</v>
+      </c>
+      <c r="D529" t="s">
+        <v>710</v>
+      </c>
+      <c r="E529" t="s">
         <v>718</v>
-      </c>
-      <c r="D529" t="s">
-        <v>710</v>
-      </c>
-      <c r="E529" t="s">
-        <v>711</v>
       </c>
       <c r="F529" t="s">
         <v>655</v>
@@ -14948,7 +14948,7 @@
         <v>709</v>
       </c>
       <c r="D535" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E535" t="s">
         <v>711</v>
@@ -14968,7 +14968,7 @@
         <v>709</v>
       </c>
       <c r="D536" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E536" t="s">
         <v>711</v>
@@ -15025,13 +15025,13 @@
         <v>7</v>
       </c>
       <c r="C539" t="s">
+        <v>709</v>
+      </c>
+      <c r="D539" t="s">
+        <v>710</v>
+      </c>
+      <c r="E539" t="s">
         <v>687</v>
-      </c>
-      <c r="D539" t="s">
-        <v>710</v>
-      </c>
-      <c r="E539" t="s">
-        <v>711</v>
       </c>
       <c r="F539" t="s">
         <v>655</v>
@@ -15125,13 +15125,13 @@
         <v>7</v>
       </c>
       <c r="C544" t="s">
-        <v>736</v>
+        <v>709</v>
       </c>
       <c r="D544" t="s">
         <v>13</v>
       </c>
       <c r="E544" t="s">
-        <v>711</v>
+        <v>736</v>
       </c>
       <c r="F544" t="s">
         <v>655</v>
@@ -15168,7 +15168,7 @@
         <v>709</v>
       </c>
       <c r="D546" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E546" t="s">
         <v>711</v>
@@ -15305,13 +15305,13 @@
         <v>7</v>
       </c>
       <c r="C553" t="s">
+        <v>740</v>
+      </c>
+      <c r="D553" t="s">
+        <v>710</v>
+      </c>
+      <c r="E553" t="s">
         <v>751</v>
-      </c>
-      <c r="D553" t="s">
-        <v>710</v>
-      </c>
-      <c r="E553" t="s">
-        <v>741</v>
       </c>
       <c r="F553" t="s">
         <v>742</v>
@@ -15368,7 +15368,7 @@
         <v>740</v>
       </c>
       <c r="D556" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E556" t="s">
         <v>741</v>
@@ -15385,13 +15385,13 @@
         <v>7</v>
       </c>
       <c r="C557" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="D557" t="s">
         <v>24</v>
       </c>
       <c r="E557" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="F557" t="s">
         <v>757</v>
@@ -15485,13 +15485,13 @@
         <v>7</v>
       </c>
       <c r="C562" t="s">
+        <v>740</v>
+      </c>
+      <c r="D562" t="s">
+        <v>15</v>
+      </c>
+      <c r="E562" t="s">
         <v>764</v>
-      </c>
-      <c r="D562" t="s">
-        <v>16</v>
-      </c>
-      <c r="E562" t="s">
-        <v>741</v>
       </c>
       <c r="F562" t="s">
         <v>742</v>
@@ -15568,7 +15568,7 @@
         <v>740</v>
       </c>
       <c r="D566" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E566" t="s">
         <v>741</v>
@@ -15605,13 +15605,13 @@
         <v>7</v>
       </c>
       <c r="C568" t="s">
+        <v>740</v>
+      </c>
+      <c r="D568" t="s">
+        <v>710</v>
+      </c>
+      <c r="E568" t="s">
         <v>771</v>
-      </c>
-      <c r="D568" t="s">
-        <v>710</v>
-      </c>
-      <c r="E568" t="s">
-        <v>741</v>
       </c>
       <c r="F568" t="s">
         <v>772</v>
@@ -15685,13 +15685,13 @@
         <v>7</v>
       </c>
       <c r="C572" t="s">
-        <v>709</v>
+        <v>777</v>
       </c>
       <c r="D572" t="s">
         <v>710</v>
       </c>
       <c r="E572" t="s">
-        <v>777</v>
+        <v>711</v>
       </c>
       <c r="F572" t="s">
         <v>778</v>
@@ -15705,13 +15705,13 @@
         <v>7</v>
       </c>
       <c r="C573" t="s">
+        <v>777</v>
+      </c>
+      <c r="D573" t="s">
+        <v>710</v>
+      </c>
+      <c r="E573" t="s">
         <v>780</v>
-      </c>
-      <c r="D573" t="s">
-        <v>710</v>
-      </c>
-      <c r="E573" t="s">
-        <v>777</v>
       </c>
       <c r="F573" t="s">
         <v>778</v>
@@ -15725,13 +15725,13 @@
         <v>7</v>
       </c>
       <c r="C574" t="s">
+        <v>777</v>
+      </c>
+      <c r="D574" t="s">
+        <v>710</v>
+      </c>
+      <c r="E574" t="s">
         <v>780</v>
-      </c>
-      <c r="D574" t="s">
-        <v>710</v>
-      </c>
-      <c r="E574" t="s">
-        <v>777</v>
       </c>
       <c r="F574" t="s">
         <v>778</v>
@@ -15745,13 +15745,13 @@
         <v>7</v>
       </c>
       <c r="C575" t="s">
+        <v>777</v>
+      </c>
+      <c r="D575" t="s">
+        <v>710</v>
+      </c>
+      <c r="E575" t="s">
         <v>780</v>
-      </c>
-      <c r="D575" t="s">
-        <v>710</v>
-      </c>
-      <c r="E575" t="s">
-        <v>777</v>
       </c>
       <c r="F575" t="s">
         <v>778</v>
@@ -15765,13 +15765,13 @@
         <v>7</v>
       </c>
       <c r="C576" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="D576" t="s">
         <v>710</v>
       </c>
       <c r="E576" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="F576" t="s">
         <v>778</v>
@@ -15785,13 +15785,13 @@
         <v>7</v>
       </c>
       <c r="C577" t="s">
+        <v>777</v>
+      </c>
+      <c r="D577" t="s">
+        <v>710</v>
+      </c>
+      <c r="E577" t="s">
         <v>780</v>
-      </c>
-      <c r="D577" t="s">
-        <v>710</v>
-      </c>
-      <c r="E577" t="s">
-        <v>777</v>
       </c>
       <c r="F577" t="s">
         <v>785</v>
@@ -15805,13 +15805,13 @@
         <v>7</v>
       </c>
       <c r="C578" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="D578" t="s">
         <v>24</v>
       </c>
       <c r="E578" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="F578" t="s">
         <v>788</v>
@@ -15825,13 +15825,13 @@
         <v>7</v>
       </c>
       <c r="C579" t="s">
+        <v>777</v>
+      </c>
+      <c r="D579" t="s">
+        <v>710</v>
+      </c>
+      <c r="E579" t="s">
         <v>780</v>
-      </c>
-      <c r="D579" t="s">
-        <v>710</v>
-      </c>
-      <c r="E579" t="s">
-        <v>777</v>
       </c>
       <c r="F579" t="s">
         <v>790</v>
@@ -15845,13 +15845,13 @@
         <v>7</v>
       </c>
       <c r="C580" t="s">
+        <v>777</v>
+      </c>
+      <c r="D580" t="s">
+        <v>15</v>
+      </c>
+      <c r="E580" t="s">
         <v>780</v>
-      </c>
-      <c r="D580" t="s">
-        <v>16</v>
-      </c>
-      <c r="E580" t="s">
-        <v>777</v>
       </c>
       <c r="F580" t="s">
         <v>792</v>
@@ -15865,13 +15865,13 @@
         <v>7</v>
       </c>
       <c r="C581" t="s">
+        <v>777</v>
+      </c>
+      <c r="D581" t="s">
+        <v>15</v>
+      </c>
+      <c r="E581" t="s">
         <v>780</v>
-      </c>
-      <c r="D581" t="s">
-        <v>16</v>
-      </c>
-      <c r="E581" t="s">
-        <v>777</v>
       </c>
       <c r="F581" t="s">
         <v>778</v>
@@ -15885,13 +15885,13 @@
         <v>7</v>
       </c>
       <c r="C582" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="D582" t="s">
         <v>24</v>
       </c>
       <c r="E582" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
       <c r="F582" t="s">
         <v>796</v>
@@ -15905,13 +15905,13 @@
         <v>7</v>
       </c>
       <c r="C583" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
       <c r="D583" t="s">
         <v>24</v>
       </c>
       <c r="E583" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="F583" t="s">
         <v>799</v>
@@ -15925,13 +15925,13 @@
         <v>7</v>
       </c>
       <c r="C584" t="s">
+        <v>777</v>
+      </c>
+      <c r="D584" t="s">
+        <v>710</v>
+      </c>
+      <c r="E584" t="s">
         <v>780</v>
-      </c>
-      <c r="D584" t="s">
-        <v>710</v>
-      </c>
-      <c r="E584" t="s">
-        <v>777</v>
       </c>
       <c r="F584" t="s">
         <v>778</v>
@@ -15945,13 +15945,13 @@
         <v>7</v>
       </c>
       <c r="C585" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="D585" t="s">
         <v>24</v>
       </c>
       <c r="E585" t="s">
-        <v>777</v>
+        <v>802</v>
       </c>
       <c r="F585" t="s">
         <v>803</v>
@@ -15965,13 +15965,13 @@
         <v>7</v>
       </c>
       <c r="C586" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D586" t="s">
         <v>13</v>
       </c>
       <c r="E586" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F586" t="s">
         <v>805</v>
@@ -15985,13 +15985,13 @@
         <v>7</v>
       </c>
       <c r="C587" t="s">
+        <v>777</v>
+      </c>
+      <c r="D587" t="s">
+        <v>710</v>
+      </c>
+      <c r="E587" t="s">
         <v>780</v>
-      </c>
-      <c r="D587" t="s">
-        <v>710</v>
-      </c>
-      <c r="E587" t="s">
-        <v>777</v>
       </c>
       <c r="F587" t="s">
         <v>807</v>
@@ -16005,13 +16005,13 @@
         <v>7</v>
       </c>
       <c r="C588" t="s">
+        <v>777</v>
+      </c>
+      <c r="D588" t="s">
+        <v>710</v>
+      </c>
+      <c r="E588" t="s">
         <v>780</v>
-      </c>
-      <c r="D588" t="s">
-        <v>710</v>
-      </c>
-      <c r="E588" t="s">
-        <v>777</v>
       </c>
       <c r="F588" t="s">
         <v>778</v>
@@ -16025,13 +16025,13 @@
         <v>7</v>
       </c>
       <c r="C589" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D589" t="s">
         <v>24</v>
       </c>
       <c r="E589" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F589" t="s">
         <v>778</v>
@@ -16045,13 +16045,13 @@
         <v>7</v>
       </c>
       <c r="C590" t="s">
+        <v>777</v>
+      </c>
+      <c r="D590" t="s">
+        <v>15</v>
+      </c>
+      <c r="E590" t="s">
         <v>780</v>
-      </c>
-      <c r="D590" t="s">
-        <v>16</v>
-      </c>
-      <c r="E590" t="s">
-        <v>777</v>
       </c>
       <c r="F590" t="s">
         <v>778</v>
@@ -16065,13 +16065,13 @@
         <v>7</v>
       </c>
       <c r="C591" t="s">
+        <v>777</v>
+      </c>
+      <c r="D591" t="s">
+        <v>710</v>
+      </c>
+      <c r="E591" t="s">
         <v>812</v>
-      </c>
-      <c r="D591" t="s">
-        <v>710</v>
-      </c>
-      <c r="E591" t="s">
-        <v>777</v>
       </c>
       <c r="F591" t="s">
         <v>778</v>
@@ -16085,13 +16085,13 @@
         <v>7</v>
       </c>
       <c r="C592" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D592" t="s">
         <v>13</v>
       </c>
       <c r="E592" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="F592" t="s">
         <v>778</v>
@@ -16105,13 +16105,13 @@
         <v>7</v>
       </c>
       <c r="C593" t="s">
+        <v>777</v>
+      </c>
+      <c r="D593" t="s">
+        <v>710</v>
+      </c>
+      <c r="E593" t="s">
         <v>780</v>
-      </c>
-      <c r="D593" t="s">
-        <v>710</v>
-      </c>
-      <c r="E593" t="s">
-        <v>777</v>
       </c>
       <c r="F593" t="s">
         <v>778</v>
@@ -16125,13 +16125,13 @@
         <v>7</v>
       </c>
       <c r="C594" t="s">
+        <v>777</v>
+      </c>
+      <c r="D594" t="s">
+        <v>710</v>
+      </c>
+      <c r="E594" t="s">
         <v>780</v>
-      </c>
-      <c r="D594" t="s">
-        <v>710</v>
-      </c>
-      <c r="E594" t="s">
-        <v>777</v>
       </c>
       <c r="F594" t="s">
         <v>778</v>
@@ -16145,13 +16145,13 @@
         <v>7</v>
       </c>
       <c r="C595" t="s">
+        <v>777</v>
+      </c>
+      <c r="D595" t="s">
+        <v>710</v>
+      </c>
+      <c r="E595" t="s">
         <v>780</v>
-      </c>
-      <c r="D595" t="s">
-        <v>710</v>
-      </c>
-      <c r="E595" t="s">
-        <v>777</v>
       </c>
       <c r="F595" t="s">
         <v>778</v>
@@ -16185,13 +16185,13 @@
         <v>7</v>
       </c>
       <c r="C597" t="s">
+        <v>818</v>
+      </c>
+      <c r="D597" t="s">
+        <v>15</v>
+      </c>
+      <c r="E597" t="s">
         <v>822</v>
-      </c>
-      <c r="D597" t="s">
-        <v>16</v>
-      </c>
-      <c r="E597" t="s">
-        <v>819</v>
       </c>
       <c r="F597" t="s">
         <v>823</v>
@@ -16265,13 +16265,13 @@
         <v>7</v>
       </c>
       <c r="C601" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D601" t="s">
         <v>24</v>
       </c>
       <c r="E601" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="F601" t="s">
         <v>829</v>
@@ -16285,13 +16285,13 @@
         <v>7</v>
       </c>
       <c r="C602" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="D602" t="s">
         <v>24</v>
       </c>
       <c r="E602" t="s">
-        <v>819</v>
+        <v>831</v>
       </c>
       <c r="F602" t="s">
         <v>832</v>
@@ -16305,13 +16305,13 @@
         <v>7</v>
       </c>
       <c r="C603" t="s">
+        <v>818</v>
+      </c>
+      <c r="D603" t="s">
+        <v>710</v>
+      </c>
+      <c r="E603" t="s">
         <v>834</v>
-      </c>
-      <c r="D603" t="s">
-        <v>710</v>
-      </c>
-      <c r="E603" t="s">
-        <v>819</v>
       </c>
       <c r="F603" t="s">
         <v>835</v>
@@ -16348,7 +16348,7 @@
         <v>818</v>
       </c>
       <c r="D605" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E605" t="s">
         <v>819</v>
@@ -16385,13 +16385,13 @@
         <v>7</v>
       </c>
       <c r="C607" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="D607" t="s">
         <v>24</v>
       </c>
       <c r="E607" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
       <c r="F607" t="s">
         <v>842</v>
@@ -16405,13 +16405,13 @@
         <v>7</v>
       </c>
       <c r="C608" t="s">
+        <v>818</v>
+      </c>
+      <c r="D608" t="s">
+        <v>710</v>
+      </c>
+      <c r="E608" t="s">
         <v>805</v>
-      </c>
-      <c r="D608" t="s">
-        <v>710</v>
-      </c>
-      <c r="E608" t="s">
-        <v>819</v>
       </c>
       <c r="F608" t="s">
         <v>844</v>
@@ -16428,7 +16428,7 @@
         <v>818</v>
       </c>
       <c r="D609" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E609" t="s">
         <v>819</v>
@@ -16445,13 +16445,13 @@
         <v>7</v>
       </c>
       <c r="C610" t="s">
-        <v>847</v>
+        <v>818</v>
       </c>
       <c r="D610" t="s">
         <v>24</v>
       </c>
       <c r="E610" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="F610" t="s">
         <v>823</v>
@@ -16468,7 +16468,7 @@
         <v>818</v>
       </c>
       <c r="D611" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E611" t="s">
         <v>819</v>
@@ -16548,7 +16548,7 @@
         <v>818</v>
       </c>
       <c r="D615" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E615" t="s">
         <v>819</v>
@@ -16705,13 +16705,13 @@
         <v>7</v>
       </c>
       <c r="C623" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D623" t="s">
         <v>24</v>
       </c>
       <c r="E623" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="F623" t="s">
         <v>867</v>
@@ -16785,13 +16785,13 @@
         <v>7</v>
       </c>
       <c r="C627" t="s">
+        <v>862</v>
+      </c>
+      <c r="D627" t="s">
+        <v>710</v>
+      </c>
+      <c r="E627" t="s">
         <v>872</v>
-      </c>
-      <c r="D627" t="s">
-        <v>710</v>
-      </c>
-      <c r="E627" t="s">
-        <v>863</v>
       </c>
       <c r="F627" t="s">
         <v>864</v>
@@ -16865,13 +16865,13 @@
         <v>7</v>
       </c>
       <c r="C631" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="D631" t="s">
         <v>24</v>
       </c>
       <c r="E631" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="F631" t="s">
         <v>874</v>
@@ -16885,13 +16885,13 @@
         <v>7</v>
       </c>
       <c r="C632" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="D632" t="s">
         <v>24</v>
       </c>
       <c r="E632" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
       <c r="F632" t="s">
         <v>881</v>
@@ -16905,13 +16905,13 @@
         <v>7</v>
       </c>
       <c r="C633" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="D633" t="s">
         <v>24</v>
       </c>
       <c r="E633" t="s">
-        <v>863</v>
+        <v>883</v>
       </c>
       <c r="F633" t="s">
         <v>884</v>
@@ -16928,7 +16928,7 @@
         <v>862</v>
       </c>
       <c r="D634" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E634" t="s">
         <v>863</v>
@@ -16965,13 +16965,13 @@
         <v>7</v>
       </c>
       <c r="C636" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="D636" t="s">
         <v>24</v>
       </c>
       <c r="E636" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="F636" t="s">
         <v>890</v>
@@ -17045,13 +17045,13 @@
         <v>7</v>
       </c>
       <c r="C640" t="s">
+        <v>862</v>
+      </c>
+      <c r="D640" t="s">
+        <v>15</v>
+      </c>
+      <c r="E640" t="s">
         <v>895</v>
-      </c>
-      <c r="D640" t="s">
-        <v>16</v>
-      </c>
-      <c r="E640" t="s">
-        <v>863</v>
       </c>
       <c r="F640" t="s">
         <v>896</v>
@@ -17068,7 +17068,7 @@
         <v>862</v>
       </c>
       <c r="D641" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E641" t="s">
         <v>863</v>
@@ -17088,7 +17088,7 @@
         <v>862</v>
       </c>
       <c r="D642" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E642" t="s">
         <v>863</v>
@@ -17208,7 +17208,7 @@
         <v>908</v>
       </c>
       <c r="D648" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E648" t="s">
         <v>909</v>
@@ -17225,13 +17225,13 @@
         <v>7</v>
       </c>
       <c r="C649" t="s">
+        <v>908</v>
+      </c>
+      <c r="D649" t="s">
+        <v>15</v>
+      </c>
+      <c r="E649" t="s">
         <v>912</v>
-      </c>
-      <c r="D649" t="s">
-        <v>16</v>
-      </c>
-      <c r="E649" t="s">
-        <v>909</v>
       </c>
       <c r="F649" t="s">
         <v>913</v>
@@ -17245,13 +17245,13 @@
         <v>7</v>
       </c>
       <c r="C650" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D650" t="s">
         <v>24</v>
       </c>
       <c r="E650" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="F650" t="s">
         <v>910</v>
@@ -17265,13 +17265,13 @@
         <v>7</v>
       </c>
       <c r="C651" t="s">
+        <v>908</v>
+      </c>
+      <c r="D651" t="s">
+        <v>710</v>
+      </c>
+      <c r="E651" t="s">
         <v>917</v>
-      </c>
-      <c r="D651" t="s">
-        <v>710</v>
-      </c>
-      <c r="E651" t="s">
-        <v>909</v>
       </c>
       <c r="F651" t="s">
         <v>918</v>
@@ -17285,13 +17285,13 @@
         <v>7</v>
       </c>
       <c r="C652" t="s">
+        <v>908</v>
+      </c>
+      <c r="D652" t="s">
+        <v>710</v>
+      </c>
+      <c r="E652" t="s">
         <v>917</v>
-      </c>
-      <c r="D652" t="s">
-        <v>710</v>
-      </c>
-      <c r="E652" t="s">
-        <v>909</v>
       </c>
       <c r="F652" t="s">
         <v>918</v>
@@ -17305,13 +17305,13 @@
         <v>7</v>
       </c>
       <c r="C653" t="s">
-        <v>862</v>
+        <v>908</v>
       </c>
       <c r="D653" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E653" t="s">
-        <v>909</v>
+        <v>863</v>
       </c>
       <c r="F653" t="s">
         <v>900</v>
@@ -17325,13 +17325,13 @@
         <v>7</v>
       </c>
       <c r="C654" t="s">
+        <v>908</v>
+      </c>
+      <c r="D654" t="s">
+        <v>710</v>
+      </c>
+      <c r="E654" t="s">
         <v>917</v>
-      </c>
-      <c r="D654" t="s">
-        <v>710</v>
-      </c>
-      <c r="E654" t="s">
-        <v>909</v>
       </c>
       <c r="F654" t="s">
         <v>918</v>
@@ -17345,13 +17345,13 @@
         <v>7</v>
       </c>
       <c r="C655" t="s">
+        <v>908</v>
+      </c>
+      <c r="D655" t="s">
+        <v>710</v>
+      </c>
+      <c r="E655" t="s">
         <v>917</v>
-      </c>
-      <c r="D655" t="s">
-        <v>710</v>
-      </c>
-      <c r="E655" t="s">
-        <v>909</v>
       </c>
       <c r="F655" t="s">
         <v>918</v>
@@ -17365,13 +17365,13 @@
         <v>7</v>
       </c>
       <c r="C656" t="s">
+        <v>908</v>
+      </c>
+      <c r="D656" t="s">
+        <v>15</v>
+      </c>
+      <c r="E656" t="s">
         <v>924</v>
-      </c>
-      <c r="D656" t="s">
-        <v>16</v>
-      </c>
-      <c r="E656" t="s">
-        <v>909</v>
       </c>
       <c r="F656" t="s">
         <v>925</v>
@@ -17385,13 +17385,13 @@
         <v>7</v>
       </c>
       <c r="C657" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="D657" t="s">
         <v>24</v>
       </c>
       <c r="E657" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="F657" t="s">
         <v>928</v>
@@ -17405,13 +17405,13 @@
         <v>7</v>
       </c>
       <c r="C658" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
       <c r="D658" t="s">
         <v>24</v>
       </c>
       <c r="E658" t="s">
-        <v>909</v>
+        <v>930</v>
       </c>
       <c r="F658" t="s">
         <v>887</v>
@@ -17425,13 +17425,13 @@
         <v>7</v>
       </c>
       <c r="C659" t="s">
-        <v>932</v>
+        <v>908</v>
       </c>
       <c r="D659" t="s">
         <v>24</v>
       </c>
       <c r="E659" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="F659" t="s">
         <v>933</v>
@@ -17445,13 +17445,13 @@
         <v>7</v>
       </c>
       <c r="C660" t="s">
+        <v>908</v>
+      </c>
+      <c r="D660" t="s">
+        <v>710</v>
+      </c>
+      <c r="E660" t="s">
         <v>917</v>
-      </c>
-      <c r="D660" t="s">
-        <v>710</v>
-      </c>
-      <c r="E660" t="s">
-        <v>909</v>
       </c>
       <c r="F660" t="s">
         <v>918</v>
@@ -17465,13 +17465,13 @@
         <v>7</v>
       </c>
       <c r="C661" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="D661" t="s">
         <v>24</v>
       </c>
       <c r="E661" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F661" t="s">
         <v>918</v>
@@ -17485,13 +17485,13 @@
         <v>7</v>
       </c>
       <c r="C662" t="s">
-        <v>937</v>
+        <v>908</v>
       </c>
       <c r="D662" t="s">
         <v>24</v>
       </c>
       <c r="E662" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="F662" t="s">
         <v>938</v>
@@ -17505,13 +17505,13 @@
         <v>7</v>
       </c>
       <c r="C663" t="s">
+        <v>908</v>
+      </c>
+      <c r="D663" t="s">
+        <v>15</v>
+      </c>
+      <c r="E663" t="s">
         <v>940</v>
-      </c>
-      <c r="D663" t="s">
-        <v>16</v>
-      </c>
-      <c r="E663" t="s">
-        <v>909</v>
       </c>
       <c r="F663" t="s">
         <v>900</v>
@@ -17525,13 +17525,13 @@
         <v>7</v>
       </c>
       <c r="C664" t="s">
+        <v>908</v>
+      </c>
+      <c r="D664" t="s">
+        <v>710</v>
+      </c>
+      <c r="E664" t="s">
         <v>917</v>
-      </c>
-      <c r="D664" t="s">
-        <v>710</v>
-      </c>
-      <c r="E664" t="s">
-        <v>909</v>
       </c>
       <c r="F664" t="s">
         <v>942</v>
@@ -17565,13 +17565,13 @@
         <v>7</v>
       </c>
       <c r="C666" t="s">
-        <v>945</v>
+        <v>908</v>
       </c>
       <c r="D666" t="s">
         <v>24</v>
       </c>
       <c r="E666" t="s">
-        <v>909</v>
+        <v>945</v>
       </c>
       <c r="F666" t="s">
         <v>946</v>
@@ -17585,13 +17585,13 @@
         <v>7</v>
       </c>
       <c r="C667" t="s">
+        <v>908</v>
+      </c>
+      <c r="D667" t="s">
+        <v>15</v>
+      </c>
+      <c r="E667" t="s">
         <v>917</v>
-      </c>
-      <c r="D667" t="s">
-        <v>16</v>
-      </c>
-      <c r="E667" t="s">
-        <v>909</v>
       </c>
       <c r="F667" t="s">
         <v>918</v>
@@ -17605,13 +17605,13 @@
         <v>7</v>
       </c>
       <c r="C668" t="s">
+        <v>908</v>
+      </c>
+      <c r="D668" t="s">
+        <v>15</v>
+      </c>
+      <c r="E668" t="s">
         <v>930</v>
-      </c>
-      <c r="D668" t="s">
-        <v>16</v>
-      </c>
-      <c r="E668" t="s">
-        <v>909</v>
       </c>
       <c r="F668" t="s">
         <v>900</v>
@@ -17625,13 +17625,13 @@
         <v>7</v>
       </c>
       <c r="C669" t="s">
+        <v>908</v>
+      </c>
+      <c r="D669" t="s">
+        <v>710</v>
+      </c>
+      <c r="E669" t="s">
         <v>917</v>
-      </c>
-      <c r="D669" t="s">
-        <v>710</v>
-      </c>
-      <c r="E669" t="s">
-        <v>909</v>
       </c>
       <c r="F669" t="s">
         <v>918</v>
@@ -17645,13 +17645,13 @@
         <v>7</v>
       </c>
       <c r="C670" t="s">
-        <v>951</v>
+        <v>908</v>
       </c>
       <c r="D670" t="s">
         <v>24</v>
       </c>
       <c r="E670" t="s">
-        <v>909</v>
+        <v>951</v>
       </c>
       <c r="F670" t="s">
         <v>910</v>
@@ -17665,13 +17665,13 @@
         <v>7</v>
       </c>
       <c r="C671" t="s">
+        <v>908</v>
+      </c>
+      <c r="D671" t="s">
+        <v>15</v>
+      </c>
+      <c r="E671" t="s">
         <v>917</v>
-      </c>
-      <c r="D671" t="s">
-        <v>16</v>
-      </c>
-      <c r="E671" t="s">
-        <v>909</v>
       </c>
       <c r="F671" t="s">
         <v>918</v>
@@ -17685,13 +17685,13 @@
         <v>7</v>
       </c>
       <c r="C672" t="s">
+        <v>908</v>
+      </c>
+      <c r="D672" t="s">
+        <v>710</v>
+      </c>
+      <c r="E672" t="s">
         <v>917</v>
-      </c>
-      <c r="D672" t="s">
-        <v>710</v>
-      </c>
-      <c r="E672" t="s">
-        <v>909</v>
       </c>
       <c r="F672" t="s">
         <v>918</v>
@@ -17705,13 +17705,13 @@
         <v>7</v>
       </c>
       <c r="C673" t="s">
+        <v>908</v>
+      </c>
+      <c r="D673" t="s">
+        <v>15</v>
+      </c>
+      <c r="E673" t="s">
         <v>932</v>
-      </c>
-      <c r="D673" t="s">
-        <v>16</v>
-      </c>
-      <c r="E673" t="s">
-        <v>909</v>
       </c>
       <c r="F673" t="s">
         <v>900</v>
@@ -17725,13 +17725,13 @@
         <v>7</v>
       </c>
       <c r="C674" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="D674" t="s">
         <v>24</v>
       </c>
       <c r="E674" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="F674" t="s">
         <v>910</v>
@@ -17745,13 +17745,13 @@
         <v>7</v>
       </c>
       <c r="C675" t="s">
+        <v>908</v>
+      </c>
+      <c r="D675" t="s">
+        <v>15</v>
+      </c>
+      <c r="E675" t="s">
         <v>917</v>
-      </c>
-      <c r="D675" t="s">
-        <v>16</v>
-      </c>
-      <c r="E675" t="s">
-        <v>909</v>
       </c>
       <c r="F675" t="s">
         <v>957</v>
@@ -17765,13 +17765,13 @@
         <v>7</v>
       </c>
       <c r="C676" t="s">
+        <v>908</v>
+      </c>
+      <c r="D676" t="s">
+        <v>710</v>
+      </c>
+      <c r="E676" t="s">
         <v>917</v>
-      </c>
-      <c r="D676" t="s">
-        <v>710</v>
-      </c>
-      <c r="E676" t="s">
-        <v>909</v>
       </c>
       <c r="F676" t="s">
         <v>918</v>
@@ -17785,13 +17785,13 @@
         <v>7</v>
       </c>
       <c r="C677" t="s">
+        <v>908</v>
+      </c>
+      <c r="D677" t="s">
+        <v>710</v>
+      </c>
+      <c r="E677" t="s">
         <v>917</v>
-      </c>
-      <c r="D677" t="s">
-        <v>710</v>
-      </c>
-      <c r="E677" t="s">
-        <v>909</v>
       </c>
       <c r="F677" t="s">
         <v>918</v>
@@ -17805,13 +17805,13 @@
         <v>7</v>
       </c>
       <c r="C678" t="s">
-        <v>932</v>
+        <v>908</v>
       </c>
       <c r="D678" t="s">
         <v>24</v>
       </c>
       <c r="E678" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="F678" t="s">
         <v>933</v>
@@ -17825,13 +17825,13 @@
         <v>7</v>
       </c>
       <c r="C679" t="s">
+        <v>908</v>
+      </c>
+      <c r="D679" t="s">
+        <v>710</v>
+      </c>
+      <c r="E679" t="s">
         <v>917</v>
-      </c>
-      <c r="D679" t="s">
-        <v>710</v>
-      </c>
-      <c r="E679" t="s">
-        <v>909</v>
       </c>
       <c r="F679" t="s">
         <v>918</v>
@@ -17845,13 +17845,13 @@
         <v>7</v>
       </c>
       <c r="C680" t="s">
+        <v>908</v>
+      </c>
+      <c r="D680" t="s">
+        <v>710</v>
+      </c>
+      <c r="E680" t="s">
         <v>917</v>
-      </c>
-      <c r="D680" t="s">
-        <v>710</v>
-      </c>
-      <c r="E680" t="s">
-        <v>909</v>
       </c>
       <c r="F680" t="s">
         <v>918</v>
@@ -17885,13 +17885,13 @@
         <v>7</v>
       </c>
       <c r="C682" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D682" t="s">
         <v>24</v>
       </c>
       <c r="E682" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="F682" t="s">
         <v>969</v>
@@ -17905,13 +17905,13 @@
         <v>7</v>
       </c>
       <c r="C683" t="s">
+        <v>964</v>
+      </c>
+      <c r="D683" t="s">
+        <v>710</v>
+      </c>
+      <c r="E683" t="s">
         <v>971</v>
-      </c>
-      <c r="D683" t="s">
-        <v>710</v>
-      </c>
-      <c r="E683" t="s">
-        <v>965</v>
       </c>
       <c r="F683" t="s">
         <v>972</v>
@@ -17925,13 +17925,13 @@
         <v>7</v>
       </c>
       <c r="C684" t="s">
+        <v>964</v>
+      </c>
+      <c r="D684" t="s">
+        <v>710</v>
+      </c>
+      <c r="E684" t="s">
         <v>971</v>
-      </c>
-      <c r="D684" t="s">
-        <v>710</v>
-      </c>
-      <c r="E684" t="s">
-        <v>965</v>
       </c>
       <c r="F684" t="s">
         <v>972</v>
@@ -17945,13 +17945,13 @@
         <v>7</v>
       </c>
       <c r="C685" t="s">
+        <v>964</v>
+      </c>
+      <c r="D685" t="s">
+        <v>710</v>
+      </c>
+      <c r="E685" t="s">
         <v>971</v>
-      </c>
-      <c r="D685" t="s">
-        <v>710</v>
-      </c>
-      <c r="E685" t="s">
-        <v>965</v>
       </c>
       <c r="F685" t="s">
         <v>972</v>
@@ -17965,13 +17965,13 @@
         <v>7</v>
       </c>
       <c r="C686" t="s">
+        <v>964</v>
+      </c>
+      <c r="D686" t="s">
+        <v>710</v>
+      </c>
+      <c r="E686" t="s">
         <v>971</v>
-      </c>
-      <c r="D686" t="s">
-        <v>710</v>
-      </c>
-      <c r="E686" t="s">
-        <v>965</v>
       </c>
       <c r="F686" t="s">
         <v>972</v>
@@ -17985,13 +17985,13 @@
         <v>7</v>
       </c>
       <c r="C687" t="s">
+        <v>964</v>
+      </c>
+      <c r="D687" t="s">
+        <v>710</v>
+      </c>
+      <c r="E687" t="s">
         <v>971</v>
-      </c>
-      <c r="D687" t="s">
-        <v>710</v>
-      </c>
-      <c r="E687" t="s">
-        <v>965</v>
       </c>
       <c r="F687" t="s">
         <v>972</v>
@@ -18005,13 +18005,13 @@
         <v>7</v>
       </c>
       <c r="C688" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="D688" t="s">
         <v>24</v>
       </c>
       <c r="E688" t="s">
-        <v>965</v>
+        <v>978</v>
       </c>
       <c r="F688" t="s">
         <v>969</v>
@@ -18025,13 +18025,13 @@
         <v>7</v>
       </c>
       <c r="C689" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="D689" t="s">
         <v>24</v>
       </c>
       <c r="E689" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="F689" t="s">
         <v>981</v>
@@ -18045,13 +18045,13 @@
         <v>7</v>
       </c>
       <c r="C690" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="D690" t="s">
         <v>13</v>
       </c>
       <c r="E690" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="F690" t="s">
         <v>972</v>
@@ -18065,13 +18065,13 @@
         <v>7</v>
       </c>
       <c r="C691" t="s">
+        <v>964</v>
+      </c>
+      <c r="D691" t="s">
+        <v>15</v>
+      </c>
+      <c r="E691" t="s">
         <v>917</v>
-      </c>
-      <c r="D691" t="s">
-        <v>16</v>
-      </c>
-      <c r="E691" t="s">
-        <v>965</v>
       </c>
       <c r="F691" t="s">
         <v>984</v>
@@ -18085,13 +18085,13 @@
         <v>7</v>
       </c>
       <c r="C692" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
       <c r="D692" t="s">
         <v>24</v>
       </c>
       <c r="E692" t="s">
-        <v>965</v>
+        <v>986</v>
       </c>
       <c r="F692" t="s">
         <v>987</v>
@@ -18105,13 +18105,13 @@
         <v>7</v>
       </c>
       <c r="C693" t="s">
+        <v>964</v>
+      </c>
+      <c r="D693" t="s">
+        <v>15</v>
+      </c>
+      <c r="E693" t="s">
         <v>989</v>
-      </c>
-      <c r="D693" t="s">
-        <v>16</v>
-      </c>
-      <c r="E693" t="s">
-        <v>965</v>
       </c>
       <c r="F693" t="s">
         <v>990</v>
@@ -18125,13 +18125,13 @@
         <v>7</v>
       </c>
       <c r="C694" t="s">
-        <v>992</v>
+        <v>964</v>
       </c>
       <c r="D694" t="s">
         <v>24</v>
       </c>
       <c r="E694" t="s">
-        <v>965</v>
+        <v>992</v>
       </c>
       <c r="F694" t="s">
         <v>993</v>
@@ -18145,13 +18145,13 @@
         <v>7</v>
       </c>
       <c r="C695" t="s">
+        <v>964</v>
+      </c>
+      <c r="D695" t="s">
+        <v>710</v>
+      </c>
+      <c r="E695" t="s">
         <v>971</v>
-      </c>
-      <c r="D695" t="s">
-        <v>710</v>
-      </c>
-      <c r="E695" t="s">
-        <v>965</v>
       </c>
       <c r="F695" t="s">
         <v>972</v>
@@ -18165,13 +18165,13 @@
         <v>7</v>
       </c>
       <c r="C696" t="s">
-        <v>996</v>
+        <v>964</v>
       </c>
       <c r="D696" t="s">
         <v>24</v>
       </c>
       <c r="E696" t="s">
-        <v>965</v>
+        <v>996</v>
       </c>
       <c r="F696" t="s">
         <v>997</v>
@@ -18185,13 +18185,13 @@
         <v>7</v>
       </c>
       <c r="C697" t="s">
-        <v>999</v>
+        <v>964</v>
       </c>
       <c r="D697" t="s">
         <v>24</v>
       </c>
       <c r="E697" t="s">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="F697" t="s">
         <v>1000</v>
@@ -18205,13 +18205,13 @@
         <v>7</v>
       </c>
       <c r="C698" t="s">
+        <v>964</v>
+      </c>
+      <c r="D698" t="s">
+        <v>15</v>
+      </c>
+      <c r="E698" t="s">
         <v>971</v>
-      </c>
-      <c r="D698" t="s">
-        <v>16</v>
-      </c>
-      <c r="E698" t="s">
-        <v>965</v>
       </c>
       <c r="F698" t="s">
         <v>972</v>
@@ -18225,13 +18225,13 @@
         <v>7</v>
       </c>
       <c r="C699" t="s">
-        <v>1003</v>
+        <v>964</v>
       </c>
       <c r="D699" t="s">
         <v>24</v>
       </c>
       <c r="E699" t="s">
-        <v>965</v>
+        <v>1003</v>
       </c>
       <c r="F699" t="s">
         <v>1004</v>
@@ -18245,13 +18245,13 @@
         <v>7</v>
       </c>
       <c r="C700" t="s">
+        <v>964</v>
+      </c>
+      <c r="D700" t="s">
+        <v>15</v>
+      </c>
+      <c r="E700" t="s">
         <v>971</v>
-      </c>
-      <c r="D700" t="s">
-        <v>16</v>
-      </c>
-      <c r="E700" t="s">
-        <v>965</v>
       </c>
       <c r="F700" t="s">
         <v>972</v>
@@ -18265,13 +18265,13 @@
         <v>7</v>
       </c>
       <c r="C701" t="s">
-        <v>1007</v>
+        <v>964</v>
       </c>
       <c r="D701" t="s">
         <v>24</v>
       </c>
       <c r="E701" t="s">
-        <v>965</v>
+        <v>1007</v>
       </c>
       <c r="F701" t="s">
         <v>1008</v>
@@ -18285,13 +18285,13 @@
         <v>7</v>
       </c>
       <c r="C702" t="s">
-        <v>1003</v>
+        <v>964</v>
       </c>
       <c r="D702" t="s">
         <v>24</v>
       </c>
       <c r="E702" t="s">
-        <v>965</v>
+        <v>1003</v>
       </c>
       <c r="F702" t="s">
         <v>1010</v>
@@ -18305,13 +18305,13 @@
         <v>7</v>
       </c>
       <c r="C703" t="s">
+        <v>964</v>
+      </c>
+      <c r="D703" t="s">
+        <v>710</v>
+      </c>
+      <c r="E703" t="s">
         <v>971</v>
-      </c>
-      <c r="D703" t="s">
-        <v>710</v>
-      </c>
-      <c r="E703" t="s">
-        <v>965</v>
       </c>
       <c r="F703" t="s">
         <v>972</v>
@@ -18325,13 +18325,13 @@
         <v>7</v>
       </c>
       <c r="C704" t="s">
+        <v>964</v>
+      </c>
+      <c r="D704" t="s">
+        <v>15</v>
+      </c>
+      <c r="E704" t="s">
         <v>999</v>
-      </c>
-      <c r="D704" t="s">
-        <v>16</v>
-      </c>
-      <c r="E704" t="s">
-        <v>965</v>
       </c>
       <c r="F704" t="s">
         <v>1013</v>
@@ -18345,13 +18345,13 @@
         <v>7</v>
       </c>
       <c r="C705" t="s">
+        <v>964</v>
+      </c>
+      <c r="D705" t="s">
+        <v>710</v>
+      </c>
+      <c r="E705" t="s">
         <v>971</v>
-      </c>
-      <c r="D705" t="s">
-        <v>710</v>
-      </c>
-      <c r="E705" t="s">
-        <v>965</v>
       </c>
       <c r="F705" t="s">
         <v>972</v>
@@ -18365,13 +18365,13 @@
         <v>7</v>
       </c>
       <c r="C706" t="s">
+        <v>964</v>
+      </c>
+      <c r="D706" t="s">
+        <v>15</v>
+      </c>
+      <c r="E706" t="s">
         <v>999</v>
-      </c>
-      <c r="D706" t="s">
-        <v>16</v>
-      </c>
-      <c r="E706" t="s">
-        <v>965</v>
       </c>
       <c r="F706" t="s">
         <v>972</v>
@@ -18385,13 +18385,13 @@
         <v>7</v>
       </c>
       <c r="C707" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D707" t="s">
         <v>24</v>
       </c>
       <c r="E707" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="F707" t="s">
         <v>1017</v>
@@ -18405,13 +18405,13 @@
         <v>7</v>
       </c>
       <c r="C708" t="s">
+        <v>964</v>
+      </c>
+      <c r="D708" t="s">
+        <v>710</v>
+      </c>
+      <c r="E708" t="s">
         <v>971</v>
-      </c>
-      <c r="D708" t="s">
-        <v>710</v>
-      </c>
-      <c r="E708" t="s">
-        <v>965</v>
       </c>
       <c r="F708" t="s">
         <v>972</v>
@@ -18425,13 +18425,13 @@
         <v>7</v>
       </c>
       <c r="C709" t="s">
-        <v>1020</v>
+        <v>964</v>
       </c>
       <c r="D709" t="s">
         <v>24</v>
       </c>
       <c r="E709" t="s">
-        <v>965</v>
+        <v>1020</v>
       </c>
       <c r="F709" t="s">
         <v>1021</v>
@@ -18445,13 +18445,13 @@
         <v>7</v>
       </c>
       <c r="C710" t="s">
+        <v>964</v>
+      </c>
+      <c r="D710" t="s">
+        <v>710</v>
+      </c>
+      <c r="E710" t="s">
         <v>999</v>
-      </c>
-      <c r="D710" t="s">
-        <v>710</v>
-      </c>
-      <c r="E710" t="s">
-        <v>965</v>
       </c>
       <c r="F710" t="s">
         <v>972</v>
@@ -18465,13 +18465,13 @@
         <v>7</v>
       </c>
       <c r="C711" t="s">
+        <v>964</v>
+      </c>
+      <c r="D711" t="s">
+        <v>710</v>
+      </c>
+      <c r="E711" t="s">
         <v>971</v>
-      </c>
-      <c r="D711" t="s">
-        <v>710</v>
-      </c>
-      <c r="E711" t="s">
-        <v>965</v>
       </c>
       <c r="F711" t="s">
         <v>972</v>
@@ -18485,13 +18485,13 @@
         <v>7</v>
       </c>
       <c r="C712" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="D712" t="s">
         <v>24</v>
       </c>
       <c r="E712" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="F712" t="s">
         <v>981</v>
@@ -18505,13 +18505,13 @@
         <v>7</v>
       </c>
       <c r="C713" t="s">
+        <v>964</v>
+      </c>
+      <c r="D713" t="s">
+        <v>710</v>
+      </c>
+      <c r="E713" t="s">
         <v>971</v>
-      </c>
-      <c r="D713" t="s">
-        <v>710</v>
-      </c>
-      <c r="E713" t="s">
-        <v>965</v>
       </c>
       <c r="F713" t="s">
         <v>972</v>
@@ -18525,13 +18525,13 @@
         <v>7</v>
       </c>
       <c r="C714" t="s">
-        <v>999</v>
+        <v>964</v>
       </c>
       <c r="D714" t="s">
         <v>24</v>
       </c>
       <c r="E714" t="s">
-        <v>965</v>
+        <v>999</v>
       </c>
       <c r="F714" t="s">
         <v>997</v>
@@ -18545,13 +18545,13 @@
         <v>7</v>
       </c>
       <c r="C715" t="s">
+        <v>964</v>
+      </c>
+      <c r="D715" t="s">
+        <v>710</v>
+      </c>
+      <c r="E715" t="s">
         <v>971</v>
-      </c>
-      <c r="D715" t="s">
-        <v>710</v>
-      </c>
-      <c r="E715" t="s">
-        <v>965</v>
       </c>
       <c r="F715" t="s">
         <v>972</v>
@@ -18565,13 +18565,13 @@
         <v>7</v>
       </c>
       <c r="C716" t="s">
+        <v>964</v>
+      </c>
+      <c r="D716" t="s">
+        <v>710</v>
+      </c>
+      <c r="E716" t="s">
         <v>971</v>
-      </c>
-      <c r="D716" t="s">
-        <v>710</v>
-      </c>
-      <c r="E716" t="s">
-        <v>965</v>
       </c>
       <c r="F716" t="s">
         <v>972</v>
@@ -18588,7 +18588,7 @@
         <v>1030</v>
       </c>
       <c r="D717" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E717" t="s">
         <v>1031</v>
@@ -18708,7 +18708,7 @@
         <v>1030</v>
       </c>
       <c r="D723" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E723" t="s">
         <v>1031</v>
@@ -18725,13 +18725,13 @@
         <v>7</v>
       </c>
       <c r="C724" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D724" t="s">
+        <v>15</v>
+      </c>
+      <c r="E724" t="s">
         <v>1041</v>
-      </c>
-      <c r="D724" t="s">
-        <v>16</v>
-      </c>
-      <c r="E724" t="s">
-        <v>1031</v>
       </c>
       <c r="F724" t="s">
         <v>1042</v>
@@ -18745,13 +18745,13 @@
         <v>7</v>
       </c>
       <c r="C725" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D725" t="s">
+        <v>15</v>
+      </c>
+      <c r="E725" t="s">
         <v>1044</v>
-      </c>
-      <c r="D725" t="s">
-        <v>16</v>
-      </c>
-      <c r="E725" t="s">
-        <v>1031</v>
       </c>
       <c r="F725" t="s">
         <v>1045</v>
@@ -18805,13 +18805,13 @@
         <v>7</v>
       </c>
       <c r="C728" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="D728" t="s">
         <v>24</v>
       </c>
       <c r="E728" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="F728" t="s">
         <v>1050</v>
@@ -18845,13 +18845,13 @@
         <v>7</v>
       </c>
       <c r="C730" t="s">
-        <v>1049</v>
+        <v>1030</v>
       </c>
       <c r="D730" t="s">
         <v>24</v>
       </c>
       <c r="E730" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="F730" t="s">
         <v>1050</v>
@@ -18865,13 +18865,13 @@
         <v>7</v>
       </c>
       <c r="C731" t="s">
-        <v>1054</v>
+        <v>1030</v>
       </c>
       <c r="D731" t="s">
         <v>24</v>
       </c>
       <c r="E731" t="s">
-        <v>1031</v>
+        <v>1054</v>
       </c>
       <c r="F731" t="s">
         <v>1055</v>
@@ -18905,13 +18905,13 @@
         <v>7</v>
       </c>
       <c r="C733" t="s">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="D733" t="s">
         <v>24</v>
       </c>
       <c r="E733" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="F733" t="s">
         <v>1060</v>
@@ -18968,7 +18968,7 @@
         <v>1030</v>
       </c>
       <c r="D736" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E736" t="s">
         <v>1031</v>
@@ -18985,13 +18985,13 @@
         <v>7</v>
       </c>
       <c r="C737" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D737" t="s">
+        <v>15</v>
+      </c>
+      <c r="E737" t="s">
         <v>971</v>
-      </c>
-      <c r="D737" t="s">
-        <v>16</v>
-      </c>
-      <c r="E737" t="s">
-        <v>1031</v>
       </c>
       <c r="F737" t="s">
         <v>1066</v>
@@ -19045,13 +19045,13 @@
         <v>7</v>
       </c>
       <c r="C740" t="s">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="D740" t="s">
         <v>24</v>
       </c>
       <c r="E740" t="s">
-        <v>1031</v>
+        <v>1070</v>
       </c>
       <c r="F740" t="s">
         <v>1071</v>
@@ -19068,7 +19068,7 @@
         <v>1030</v>
       </c>
       <c r="D741" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E741" t="s">
         <v>1031</v>
@@ -19108,7 +19108,7 @@
         <v>1030</v>
       </c>
       <c r="D743" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E743" t="s">
         <v>1031</v>
@@ -19245,13 +19245,13 @@
         <v>7</v>
       </c>
       <c r="C750" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D750" t="s">
         <v>24</v>
       </c>
       <c r="E750" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="F750" t="s">
         <v>1088</v>
@@ -19265,13 +19265,13 @@
         <v>7</v>
       </c>
       <c r="C751" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D751" t="s">
+        <v>710</v>
+      </c>
+      <c r="E751" t="s">
         <v>1090</v>
-      </c>
-      <c r="D751" t="s">
-        <v>710</v>
-      </c>
-      <c r="E751" t="s">
-        <v>1084</v>
       </c>
       <c r="F751" t="s">
         <v>1091</v>
@@ -19285,13 +19285,13 @@
         <v>7</v>
       </c>
       <c r="C752" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D752" t="s">
+        <v>710</v>
+      </c>
+      <c r="E752" t="s">
         <v>1090</v>
-      </c>
-      <c r="D752" t="s">
-        <v>710</v>
-      </c>
-      <c r="E752" t="s">
-        <v>1084</v>
       </c>
       <c r="F752" t="s">
         <v>1091</v>
@@ -19305,13 +19305,13 @@
         <v>7</v>
       </c>
       <c r="C753" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D753" t="s">
+        <v>710</v>
+      </c>
+      <c r="E753" t="s">
         <v>1090</v>
-      </c>
-      <c r="D753" t="s">
-        <v>710</v>
-      </c>
-      <c r="E753" t="s">
-        <v>1084</v>
       </c>
       <c r="F753" t="s">
         <v>1091</v>
@@ -19325,13 +19325,13 @@
         <v>7</v>
       </c>
       <c r="C754" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D754" t="s">
+        <v>710</v>
+      </c>
+      <c r="E754" t="s">
         <v>1090</v>
-      </c>
-      <c r="D754" t="s">
-        <v>710</v>
-      </c>
-      <c r="E754" t="s">
-        <v>1084</v>
       </c>
       <c r="F754" t="s">
         <v>1091</v>
@@ -19345,13 +19345,13 @@
         <v>7</v>
       </c>
       <c r="C755" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D755" t="s">
+        <v>710</v>
+      </c>
+      <c r="E755" t="s">
         <v>1090</v>
-      </c>
-      <c r="D755" t="s">
-        <v>710</v>
-      </c>
-      <c r="E755" t="s">
-        <v>1084</v>
       </c>
       <c r="F755" t="s">
         <v>1091</v>
@@ -19365,13 +19365,13 @@
         <v>7</v>
       </c>
       <c r="C756" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D756" t="s">
+        <v>710</v>
+      </c>
+      <c r="E756" t="s">
         <v>1090</v>
-      </c>
-      <c r="D756" t="s">
-        <v>710</v>
-      </c>
-      <c r="E756" t="s">
-        <v>1084</v>
       </c>
       <c r="F756" t="s">
         <v>1091</v>
@@ -19385,13 +19385,13 @@
         <v>7</v>
       </c>
       <c r="C757" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D757" t="s">
         <v>24</v>
       </c>
       <c r="E757" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="F757" t="s">
         <v>1085</v>
@@ -19405,13 +19405,13 @@
         <v>7</v>
       </c>
       <c r="C758" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D758" t="s">
+        <v>15</v>
+      </c>
+      <c r="E758" t="s">
         <v>1090</v>
-      </c>
-      <c r="D758" t="s">
-        <v>16</v>
-      </c>
-      <c r="E758" t="s">
-        <v>1084</v>
       </c>
       <c r="F758" t="s">
         <v>1063</v>
@@ -19425,13 +19425,13 @@
         <v>7</v>
       </c>
       <c r="C759" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D759" t="s">
+        <v>710</v>
+      </c>
+      <c r="E759" t="s">
         <v>1090</v>
-      </c>
-      <c r="D759" t="s">
-        <v>710</v>
-      </c>
-      <c r="E759" t="s">
-        <v>1084</v>
       </c>
       <c r="F759" t="s">
         <v>1091</v>
@@ -19445,13 +19445,13 @@
         <v>7</v>
       </c>
       <c r="C760" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D760" t="s">
+        <v>710</v>
+      </c>
+      <c r="E760" t="s">
         <v>1090</v>
-      </c>
-      <c r="D760" t="s">
-        <v>710</v>
-      </c>
-      <c r="E760" t="s">
-        <v>1084</v>
       </c>
       <c r="F760" t="s">
         <v>1091</v>
@@ -19465,13 +19465,13 @@
         <v>7</v>
       </c>
       <c r="C761" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="D761" t="s">
         <v>24</v>
       </c>
       <c r="E761" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="F761" t="s">
         <v>1063</v>
@@ -19485,13 +19485,13 @@
         <v>7</v>
       </c>
       <c r="C762" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D762" t="s">
+        <v>710</v>
+      </c>
+      <c r="E762" t="s">
         <v>1090</v>
-      </c>
-      <c r="D762" t="s">
-        <v>710</v>
-      </c>
-      <c r="E762" t="s">
-        <v>1084</v>
       </c>
       <c r="F762" t="s">
         <v>1091</v>
@@ -19505,13 +19505,13 @@
         <v>7</v>
       </c>
       <c r="C763" t="s">
-        <v>1105</v>
+        <v>1083</v>
       </c>
       <c r="D763" t="s">
         <v>24</v>
       </c>
       <c r="E763" t="s">
-        <v>1084</v>
+        <v>1105</v>
       </c>
       <c r="F763" t="s">
         <v>1106</v>
@@ -19545,13 +19545,13 @@
         <v>7</v>
       </c>
       <c r="C765" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
       <c r="D765" t="s">
         <v>24</v>
       </c>
       <c r="E765" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="F765" t="s">
         <v>1109</v>
@@ -19565,13 +19565,13 @@
         <v>7</v>
       </c>
       <c r="C766" t="s">
-        <v>1111</v>
+        <v>1083</v>
       </c>
       <c r="D766" t="s">
         <v>24</v>
       </c>
       <c r="E766" t="s">
-        <v>1084</v>
+        <v>1111</v>
       </c>
       <c r="F766" t="s">
         <v>1112</v>
@@ -19585,13 +19585,13 @@
         <v>7</v>
       </c>
       <c r="C767" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D767" t="s">
+        <v>710</v>
+      </c>
+      <c r="E767" t="s">
         <v>1090</v>
-      </c>
-      <c r="D767" t="s">
-        <v>710</v>
-      </c>
-      <c r="E767" t="s">
-        <v>1084</v>
       </c>
       <c r="F767" t="s">
         <v>1091</v>
@@ -19605,13 +19605,13 @@
         <v>7</v>
       </c>
       <c r="C768" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D768" t="s">
+        <v>710</v>
+      </c>
+      <c r="E768" t="s">
         <v>1090</v>
-      </c>
-      <c r="D768" t="s">
-        <v>710</v>
-      </c>
-      <c r="E768" t="s">
-        <v>1084</v>
       </c>
       <c r="F768" t="s">
         <v>1091</v>
@@ -19625,13 +19625,13 @@
         <v>7</v>
       </c>
       <c r="C769" t="s">
-        <v>1116</v>
+        <v>1083</v>
       </c>
       <c r="D769" t="s">
         <v>24</v>
       </c>
       <c r="E769" t="s">
-        <v>1084</v>
+        <v>1116</v>
       </c>
       <c r="F769" t="s">
         <v>1117</v>
@@ -19645,13 +19645,13 @@
         <v>7</v>
       </c>
       <c r="C770" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D770" t="s">
+        <v>710</v>
+      </c>
+      <c r="E770" t="s">
         <v>1090</v>
-      </c>
-      <c r="D770" t="s">
-        <v>710</v>
-      </c>
-      <c r="E770" t="s">
-        <v>1084</v>
       </c>
       <c r="F770" t="s">
         <v>1091</v>
@@ -19665,13 +19665,13 @@
         <v>7</v>
       </c>
       <c r="C771" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D771" t="s">
+        <v>710</v>
+      </c>
+      <c r="E771" t="s">
         <v>1090</v>
-      </c>
-      <c r="D771" t="s">
-        <v>710</v>
-      </c>
-      <c r="E771" t="s">
-        <v>1084</v>
       </c>
       <c r="F771" t="s">
         <v>1091</v>
@@ -19685,13 +19685,13 @@
         <v>7</v>
       </c>
       <c r="C772" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D772" t="s">
+        <v>710</v>
+      </c>
+      <c r="E772" t="s">
         <v>1090</v>
-      </c>
-      <c r="D772" t="s">
-        <v>710</v>
-      </c>
-      <c r="E772" t="s">
-        <v>1084</v>
       </c>
       <c r="F772" t="s">
         <v>1091</v>
@@ -19705,13 +19705,13 @@
         <v>7</v>
       </c>
       <c r="C773" t="s">
-        <v>1122</v>
+        <v>1083</v>
       </c>
       <c r="D773" t="s">
         <v>24</v>
       </c>
       <c r="E773" t="s">
-        <v>1084</v>
+        <v>1122</v>
       </c>
       <c r="F773" t="s">
         <v>1123</v>
@@ -19725,13 +19725,13 @@
         <v>7</v>
       </c>
       <c r="C774" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D774" t="s">
+        <v>710</v>
+      </c>
+      <c r="E774" t="s">
         <v>1090</v>
-      </c>
-      <c r="D774" t="s">
-        <v>710</v>
-      </c>
-      <c r="E774" t="s">
-        <v>1084</v>
       </c>
       <c r="F774" t="s">
         <v>1091</v>
@@ -19748,7 +19748,7 @@
         <v>1126</v>
       </c>
       <c r="D775" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E775" t="s">
         <v>1127</v>
@@ -19785,13 +19785,13 @@
         <v>7</v>
       </c>
       <c r="C777" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="D777" t="s">
         <v>24</v>
       </c>
       <c r="E777" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
       <c r="F777" t="s">
         <v>1133</v>
@@ -19805,13 +19805,13 @@
         <v>7</v>
       </c>
       <c r="C778" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="D778" t="s">
         <v>24</v>
       </c>
       <c r="E778" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="F778" t="s">
         <v>1136</v>
@@ -20005,13 +20005,13 @@
         <v>7</v>
       </c>
       <c r="C788" t="s">
-        <v>1148</v>
+        <v>1126</v>
       </c>
       <c r="D788" t="s">
         <v>24</v>
       </c>
       <c r="E788" t="s">
-        <v>1127</v>
+        <v>1148</v>
       </c>
       <c r="F788" t="s">
         <v>1128</v>
@@ -20045,13 +20045,13 @@
         <v>7</v>
       </c>
       <c r="C790" t="s">
-        <v>1151</v>
+        <v>1126</v>
       </c>
       <c r="D790" t="s">
         <v>24</v>
       </c>
       <c r="E790" t="s">
-        <v>1127</v>
+        <v>1151</v>
       </c>
       <c r="F790" t="s">
         <v>1140</v>
@@ -20065,13 +20065,13 @@
         <v>7</v>
       </c>
       <c r="C791" t="s">
-        <v>1148</v>
+        <v>1126</v>
       </c>
       <c r="D791" t="s">
         <v>24</v>
       </c>
       <c r="E791" t="s">
-        <v>1127</v>
+        <v>1148</v>
       </c>
       <c r="F791" t="s">
         <v>1153</v>
@@ -20105,13 +20105,13 @@
         <v>7</v>
       </c>
       <c r="C793" t="s">
-        <v>1156</v>
+        <v>1126</v>
       </c>
       <c r="D793" t="s">
         <v>24</v>
       </c>
       <c r="E793" t="s">
-        <v>1127</v>
+        <v>1156</v>
       </c>
       <c r="F793" t="s">
         <v>1130</v>
@@ -20165,13 +20165,13 @@
         <v>7</v>
       </c>
       <c r="C796" t="s">
-        <v>1161</v>
+        <v>1126</v>
       </c>
       <c r="D796" t="s">
         <v>24</v>
       </c>
       <c r="E796" t="s">
-        <v>1127</v>
+        <v>1161</v>
       </c>
       <c r="F796" t="s">
         <v>1162</v>
@@ -20185,13 +20185,13 @@
         <v>7</v>
       </c>
       <c r="C797" t="s">
-        <v>1164</v>
+        <v>1126</v>
       </c>
       <c r="D797" t="s">
         <v>24</v>
       </c>
       <c r="E797" t="s">
-        <v>1127</v>
+        <v>1164</v>
       </c>
       <c r="F797" t="s">
         <v>1165</v>
@@ -20388,7 +20388,7 @@
         <v>1176</v>
       </c>
       <c r="D807" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E807" t="s">
         <v>1177</v>
@@ -20445,13 +20445,13 @@
         <v>7</v>
       </c>
       <c r="C810" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="D810" t="s">
         <v>24</v>
       </c>
       <c r="E810" t="s">
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="F810" t="s">
         <v>1183</v>
@@ -20488,7 +20488,7 @@
         <v>1176</v>
       </c>
       <c r="D812" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E812" t="s">
         <v>1177</v>
@@ -20525,13 +20525,13 @@
         <v>7</v>
       </c>
       <c r="C814" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="D814" t="s">
         <v>24</v>
       </c>
       <c r="E814" t="s">
-        <v>1177</v>
+        <v>1188</v>
       </c>
       <c r="F814" t="s">
         <v>1189</v>
@@ -20645,13 +20645,13 @@
         <v>7</v>
       </c>
       <c r="C820" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D820" t="s">
+        <v>15</v>
+      </c>
+      <c r="E820" t="s">
         <v>1196</v>
-      </c>
-      <c r="D820" t="s">
-        <v>16</v>
-      </c>
-      <c r="E820" t="s">
-        <v>1177</v>
       </c>
       <c r="F820" t="s">
         <v>1197</v>
@@ -20665,13 +20665,13 @@
         <v>7</v>
       </c>
       <c r="C821" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D821" t="s">
+        <v>710</v>
+      </c>
+      <c r="E821" t="s">
         <v>1199</v>
-      </c>
-      <c r="D821" t="s">
-        <v>710</v>
-      </c>
-      <c r="E821" t="s">
-        <v>1177</v>
       </c>
       <c r="F821" t="s">
         <v>1200</v>
@@ -20705,13 +20705,13 @@
         <v>7</v>
       </c>
       <c r="C823" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D823" t="s">
+        <v>710</v>
+      </c>
+      <c r="E823" t="s">
         <v>1199</v>
-      </c>
-      <c r="D823" t="s">
-        <v>710</v>
-      </c>
-      <c r="E823" t="s">
-        <v>1177</v>
       </c>
       <c r="F823" t="s">
         <v>1200</v>
@@ -20725,13 +20725,13 @@
         <v>7</v>
       </c>
       <c r="C824" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D824" t="s">
+        <v>710</v>
+      </c>
+      <c r="E824" t="s">
         <v>1199</v>
-      </c>
-      <c r="D824" t="s">
-        <v>710</v>
-      </c>
-      <c r="E824" t="s">
-        <v>1177</v>
       </c>
       <c r="F824" t="s">
         <v>1200</v>
@@ -20745,13 +20745,13 @@
         <v>7</v>
       </c>
       <c r="C825" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D825" t="s">
+        <v>710</v>
+      </c>
+      <c r="E825" t="s">
         <v>1199</v>
-      </c>
-      <c r="D825" t="s">
-        <v>710</v>
-      </c>
-      <c r="E825" t="s">
-        <v>1177</v>
       </c>
       <c r="F825" t="s">
         <v>1200</v>
@@ -20765,13 +20765,13 @@
         <v>7</v>
       </c>
       <c r="C826" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D826" t="s">
+        <v>710</v>
+      </c>
+      <c r="E826" t="s">
         <v>1199</v>
-      </c>
-      <c r="D826" t="s">
-        <v>710</v>
-      </c>
-      <c r="E826" t="s">
-        <v>1177</v>
       </c>
       <c r="F826" t="s">
         <v>1200</v>
@@ -20868,7 +20868,7 @@
         <v>1176</v>
       </c>
       <c r="D831" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E831" t="s">
         <v>1177</v>
@@ -21165,13 +21165,13 @@
         <v>7</v>
       </c>
       <c r="C846" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D846" t="s">
+        <v>710</v>
+      </c>
+      <c r="E846" t="s">
         <v>1182</v>
-      </c>
-      <c r="D846" t="s">
-        <v>710</v>
-      </c>
-      <c r="E846" t="s">
-        <v>1219</v>
       </c>
       <c r="F846" t="s">
         <v>1230</v>
@@ -21185,13 +21185,13 @@
         <v>7</v>
       </c>
       <c r="C847" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D847" t="s">
+        <v>710</v>
+      </c>
+      <c r="E847" t="s">
         <v>1182</v>
-      </c>
-      <c r="D847" t="s">
-        <v>710</v>
-      </c>
-      <c r="E847" t="s">
-        <v>1219</v>
       </c>
       <c r="F847" t="s">
         <v>1230</v>
@@ -21205,13 +21205,13 @@
         <v>7</v>
       </c>
       <c r="C848" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D848" t="s">
+        <v>710</v>
+      </c>
+      <c r="E848" t="s">
         <v>1182</v>
-      </c>
-      <c r="D848" t="s">
-        <v>710</v>
-      </c>
-      <c r="E848" t="s">
-        <v>1219</v>
       </c>
       <c r="F848" t="s">
         <v>1230</v>
@@ -21225,13 +21225,13 @@
         <v>7</v>
       </c>
       <c r="C849" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D849" t="s">
+        <v>710</v>
+      </c>
+      <c r="E849" t="s">
         <v>1234</v>
-      </c>
-      <c r="D849" t="s">
-        <v>710</v>
-      </c>
-      <c r="E849" t="s">
-        <v>1219</v>
       </c>
       <c r="F849" t="s">
         <v>1230</v>
@@ -21245,13 +21245,13 @@
         <v>7</v>
       </c>
       <c r="C850" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D850" t="s">
+        <v>710</v>
+      </c>
+      <c r="E850" t="s">
         <v>1182</v>
-      </c>
-      <c r="D850" t="s">
-        <v>710</v>
-      </c>
-      <c r="E850" t="s">
-        <v>1219</v>
       </c>
       <c r="F850" t="s">
         <v>1230</v>
@@ -21265,13 +21265,13 @@
         <v>7</v>
       </c>
       <c r="C851" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D851" t="s">
+        <v>710</v>
+      </c>
+      <c r="E851" t="s">
         <v>1182</v>
-      </c>
-      <c r="D851" t="s">
-        <v>710</v>
-      </c>
-      <c r="E851" t="s">
-        <v>1219</v>
       </c>
       <c r="F851" t="s">
         <v>1230</v>
@@ -21308,7 +21308,7 @@
         <v>1218</v>
       </c>
       <c r="D853" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E853" t="s">
         <v>1219</v>
@@ -21328,7 +21328,7 @@
         <v>1218</v>
       </c>
       <c r="D854" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E854" t="s">
         <v>1219</v>
@@ -21348,7 +21348,7 @@
         <v>1218</v>
       </c>
       <c r="D855" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E855" t="s">
         <v>1219</v>
@@ -21408,7 +21408,7 @@
         <v>1218</v>
       </c>
       <c r="D858" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E858" t="s">
         <v>1219</v>
@@ -21585,13 +21585,13 @@
         <v>7</v>
       </c>
       <c r="C867" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D867" t="s">
+        <v>710</v>
+      </c>
+      <c r="E867" t="s">
         <v>1256</v>
-      </c>
-      <c r="D867" t="s">
-        <v>710</v>
-      </c>
-      <c r="E867" t="s">
-        <v>1253</v>
       </c>
       <c r="F867" t="s">
         <v>1254</v>
@@ -21605,13 +21605,13 @@
         <v>7</v>
       </c>
       <c r="C868" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D868" t="s">
+        <v>710</v>
+      </c>
+      <c r="E868" t="s">
         <v>1256</v>
-      </c>
-      <c r="D868" t="s">
-        <v>710</v>
-      </c>
-      <c r="E868" t="s">
-        <v>1253</v>
       </c>
       <c r="F868" t="s">
         <v>1254</v>
@@ -21625,13 +21625,13 @@
         <v>7</v>
       </c>
       <c r="C869" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D869" t="s">
+        <v>710</v>
+      </c>
+      <c r="E869" t="s">
         <v>1256</v>
-      </c>
-      <c r="D869" t="s">
-        <v>710</v>
-      </c>
-      <c r="E869" t="s">
-        <v>1253</v>
       </c>
       <c r="F869" t="s">
         <v>1254</v>
@@ -21645,13 +21645,13 @@
         <v>7</v>
       </c>
       <c r="C870" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D870" t="s">
+        <v>710</v>
+      </c>
+      <c r="E870" t="s">
         <v>1256</v>
-      </c>
-      <c r="D870" t="s">
-        <v>710</v>
-      </c>
-      <c r="E870" t="s">
-        <v>1253</v>
       </c>
       <c r="F870" t="s">
         <v>1254</v>
@@ -21665,13 +21665,13 @@
         <v>7</v>
       </c>
       <c r="C871" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D871" t="s">
+        <v>15</v>
+      </c>
+      <c r="E871" t="s">
         <v>1256</v>
-      </c>
-      <c r="D871" t="s">
-        <v>16</v>
-      </c>
-      <c r="E871" t="s">
-        <v>1253</v>
       </c>
       <c r="F871" t="s">
         <v>1254</v>
@@ -21685,13 +21685,13 @@
         <v>7</v>
       </c>
       <c r="C872" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D872" t="s">
+        <v>15</v>
+      </c>
+      <c r="E872" t="s">
         <v>1256</v>
-      </c>
-      <c r="D872" t="s">
-        <v>16</v>
-      </c>
-      <c r="E872" t="s">
-        <v>1253</v>
       </c>
       <c r="F872" t="s">
         <v>1254</v>
@@ -21705,13 +21705,13 @@
         <v>7</v>
       </c>
       <c r="C873" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D873" t="s">
+        <v>710</v>
+      </c>
+      <c r="E873" t="s">
         <v>1256</v>
-      </c>
-      <c r="D873" t="s">
-        <v>710</v>
-      </c>
-      <c r="E873" t="s">
-        <v>1253</v>
       </c>
       <c r="F873" t="s">
         <v>1254</v>
@@ -21725,13 +21725,13 @@
         <v>7</v>
       </c>
       <c r="C874" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D874" t="s">
+        <v>710</v>
+      </c>
+      <c r="E874" t="s">
         <v>1256</v>
-      </c>
-      <c r="D874" t="s">
-        <v>710</v>
-      </c>
-      <c r="E874" t="s">
-        <v>1253</v>
       </c>
       <c r="F874" t="s">
         <v>1254</v>
@@ -21745,13 +21745,13 @@
         <v>7</v>
       </c>
       <c r="C875" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D875" t="s">
+        <v>710</v>
+      </c>
+      <c r="E875" t="s">
         <v>1256</v>
-      </c>
-      <c r="D875" t="s">
-        <v>710</v>
-      </c>
-      <c r="E875" t="s">
-        <v>1253</v>
       </c>
       <c r="F875" t="s">
         <v>1254</v>
@@ -21765,13 +21765,13 @@
         <v>7</v>
       </c>
       <c r="C876" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D876" t="s">
+        <v>15</v>
+      </c>
+      <c r="E876" t="s">
         <v>1256</v>
-      </c>
-      <c r="D876" t="s">
-        <v>16</v>
-      </c>
-      <c r="E876" t="s">
-        <v>1253</v>
       </c>
       <c r="F876" t="s">
         <v>1254</v>
@@ -21785,13 +21785,13 @@
         <v>7</v>
       </c>
       <c r="C877" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D877" t="s">
+        <v>710</v>
+      </c>
+      <c r="E877" t="s">
         <v>1256</v>
-      </c>
-      <c r="D877" t="s">
-        <v>710</v>
-      </c>
-      <c r="E877" t="s">
-        <v>1253</v>
       </c>
       <c r="F877" t="s">
         <v>1254</v>
@@ -21805,13 +21805,13 @@
         <v>7</v>
       </c>
       <c r="C878" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D878" t="s">
+        <v>710</v>
+      </c>
+      <c r="E878" t="s">
         <v>1256</v>
-      </c>
-      <c r="D878" t="s">
-        <v>710</v>
-      </c>
-      <c r="E878" t="s">
-        <v>1253</v>
       </c>
       <c r="F878" t="s">
         <v>1254</v>
@@ -21825,13 +21825,13 @@
         <v>7</v>
       </c>
       <c r="C879" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D879" t="s">
+        <v>710</v>
+      </c>
+      <c r="E879" t="s">
         <v>1256</v>
-      </c>
-      <c r="D879" t="s">
-        <v>710</v>
-      </c>
-      <c r="E879" t="s">
-        <v>1253</v>
       </c>
       <c r="F879" t="s">
         <v>1254</v>
@@ -21845,13 +21845,13 @@
         <v>7</v>
       </c>
       <c r="C880" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D880" t="s">
+        <v>710</v>
+      </c>
+      <c r="E880" t="s">
         <v>1256</v>
-      </c>
-      <c r="D880" t="s">
-        <v>710</v>
-      </c>
-      <c r="E880" t="s">
-        <v>1253</v>
       </c>
       <c r="F880" t="s">
         <v>1254</v>
@@ -21865,13 +21865,13 @@
         <v>7</v>
       </c>
       <c r="C881" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D881" t="s">
+        <v>710</v>
+      </c>
+      <c r="E881" t="s">
         <v>1256</v>
-      </c>
-      <c r="D881" t="s">
-        <v>710</v>
-      </c>
-      <c r="E881" t="s">
-        <v>1253</v>
       </c>
       <c r="F881" t="s">
         <v>1254</v>
@@ -21885,13 +21885,13 @@
         <v>7</v>
       </c>
       <c r="C882" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D882" t="s">
+        <v>710</v>
+      </c>
+      <c r="E882" t="s">
         <v>1256</v>
-      </c>
-      <c r="D882" t="s">
-        <v>710</v>
-      </c>
-      <c r="E882" t="s">
-        <v>1253</v>
       </c>
       <c r="F882" t="s">
         <v>1254</v>
@@ -21905,13 +21905,13 @@
         <v>7</v>
       </c>
       <c r="C883" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D883" t="s">
+        <v>710</v>
+      </c>
+      <c r="E883" t="s">
         <v>1256</v>
-      </c>
-      <c r="D883" t="s">
-        <v>710</v>
-      </c>
-      <c r="E883" t="s">
-        <v>1253</v>
       </c>
       <c r="F883" t="s">
         <v>1254</v>
@@ -21925,13 +21925,13 @@
         <v>7</v>
       </c>
       <c r="C884" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D884" t="s">
+        <v>710</v>
+      </c>
+      <c r="E884" t="s">
         <v>1256</v>
-      </c>
-      <c r="D884" t="s">
-        <v>710</v>
-      </c>
-      <c r="E884" t="s">
-        <v>1253</v>
       </c>
       <c r="F884" t="s">
         <v>1254</v>
@@ -21945,13 +21945,13 @@
         <v>7</v>
       </c>
       <c r="C885" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D885" t="s">
+        <v>710</v>
+      </c>
+      <c r="E885" t="s">
         <v>1256</v>
-      </c>
-      <c r="D885" t="s">
-        <v>710</v>
-      </c>
-      <c r="E885" t="s">
-        <v>1253</v>
       </c>
       <c r="F885" t="s">
         <v>1254</v>
@@ -21965,13 +21965,13 @@
         <v>7</v>
       </c>
       <c r="C886" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D886" t="s">
+        <v>15</v>
+      </c>
+      <c r="E886" t="s">
         <v>1256</v>
-      </c>
-      <c r="D886" t="s">
-        <v>16</v>
-      </c>
-      <c r="E886" t="s">
-        <v>1253</v>
       </c>
       <c r="F886" t="s">
         <v>1254</v>
@@ -21985,13 +21985,13 @@
         <v>7</v>
       </c>
       <c r="C887" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D887" t="s">
+        <v>710</v>
+      </c>
+      <c r="E887" t="s">
         <v>1256</v>
-      </c>
-      <c r="D887" t="s">
-        <v>710</v>
-      </c>
-      <c r="E887" t="s">
-        <v>1253</v>
       </c>
       <c r="F887" t="s">
         <v>1254</v>
@@ -22005,13 +22005,13 @@
         <v>7</v>
       </c>
       <c r="C888" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D888" t="s">
+        <v>710</v>
+      </c>
+      <c r="E888" t="s">
         <v>1256</v>
-      </c>
-      <c r="D888" t="s">
-        <v>710</v>
-      </c>
-      <c r="E888" t="s">
-        <v>1253</v>
       </c>
       <c r="F888" t="s">
         <v>1254</v>
@@ -22305,13 +22305,13 @@
         <v>7</v>
       </c>
       <c r="C903" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="D903" t="s">
         <v>710</v>
       </c>
       <c r="E903" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="F903" t="s">
         <v>1298</v>
@@ -22325,13 +22325,13 @@
         <v>7</v>
       </c>
       <c r="C904" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="D904" t="s">
         <v>710</v>
       </c>
       <c r="E904" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="F904" t="s">
         <v>1300</v>
@@ -22345,13 +22345,13 @@
         <v>7</v>
       </c>
       <c r="C905" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="D905" t="s">
         <v>710</v>
       </c>
       <c r="E905" t="s">
-        <v>1297</v>
+        <v>1280</v>
       </c>
       <c r="F905" t="s">
         <v>1298</v>
